--- a/models/astra-v3/training/dataset-clean-treatment.xlsx
+++ b/models/astra-v3/training/dataset-clean-treatment.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="319">
   <si>
     <t>Tag</t>
   </si>
@@ -37,41 +37,42 @@
     <t>Context Set</t>
   </si>
   <si>
-    <t>Buko Water</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Buko water is a refreshing and nutritious drink that is popular in many tropical countries, especially in Southeast Asia. It is the clear liquid found inside young coconuts. Buko water is a natural source of electrolytes, which helps to replenish fluids in the body. This makes it a great choice for staying hydrated, especially after exercise or illness. It also contains essential vitamins and minerals, such as vitamin C, calcium, and potassium, that are important for overall health. Additionally, buko water may aid in digestion and help prevent constipation. It is low in calories and fat, making it a suitable drink for those who are watching their weight.</t>
-  </si>
-  <si>
-    <t>How to prepare Buko (Coconut) Water for diarrhea?
-Steps to use Buko Water for dehydration.
+    <t>Coconut water</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>Coconut water is a refreshing and nutritious drink that is popular in many tropical countries, especially in Southeast Asia. It is the clear liquid found inside young coconuts. Buko water is a natural source of electrolytes, which helps to replenish fluids in the body. This makes it a great choice for staying hydrated, especially after exercise or illness. It also contains essential vitamins and minerals, such as vitamin C, calcium, and potassium, that are important for overall health. Additionally, buko water may aid in digestion and help prevent constipation. It is low in calories and fat, making it a suitable drink for those who are watching their weight.</t>
+  </si>
+  <si>
+    <t>Coconut water
+How to prepare coconut water for diarrhea?
+Steps to use coconut water for dehydration.
 How to use coconut water for rehydration?
-Best practices for using Buko Water in home remedies.
+Best practices for using coconut water in home remedies.
 How to filter coconut water for medicinal use?
-How to prepare coconut for dehydration?
-How to use coconut to help with diarrhea?
-Steps to use coconut for heat exhaustion.
-How to make coconut juice for hydration?
-Benefits of coconut for dehydration.
-How to apply coconut meat for diarrhea?
-How to combine coconut with other remedies for dehydration?
+How to prepare coconut water for dehydration?
+How to use coconut water to help with diarrhea?
+Steps to use coconut water for heat exhaustion.
+How to make coconut water for hydration?
+Benefits of coconut water for dehydration.
+How to apply coconut water for diarrhea?
+How to combine coconut water with other remedies for dehydration?
 How to prepare coconut water for heat exhaustion?
-How to apply coconut for symptoms of diarrhea?
-How to store coconut for medicinal use?
-How to make a coconut smoothie for hydration?
-How to prepare coconut ice for heat exhaustion?
-How to use coconut milk for digestive health?
-How to incorporate coconut into the diet for recovery from dehydration?
-How to make coconut popsicles for hydration?
-How to prepare coconut salad for hydration?
-How to make coconut juice with lime for diarrhea?
-How to mix coconut with other fruits for heat exhaustion?
-How to use coconut pulp for symptoms of dehydration?
-How to apply coconut slices for hydration?
-How to use coconut for children with diarrhea?</t>
+How to apply coconut water for symptoms of diarrhea?
+How to store coconut water for medicinal use?
+How to make a coconut water for hydration?
+How to prepare coconut water ice for heat exhaustion?
+How to use coconut water for digestive health?
+How to incorporate coconut water into the diet for recovery from dehydration?
+How to make coconut water for dehydration?
+How to prepare coconut water for dehydration?
+How to make coconut water for diarrhea?
+How to mix coconut water for heat exhaustion?
+How to use coconut water for symptoms of dehydration?
+How to apply coconut water for hydration?
+How to use coconut water for children with diarrhea?</t>
   </si>
   <si>
     <t>Select Fresh Coconuts: Choose young, green coconuts. Open the Coconut: Use a sharp knife or coconut opener to pierce the soft eye and drain the water into a clean container. Filter the Water: Pour the coconut water through a fine mesh strainer or cheesecloth. Consume Slowly: Drink the coconut water slowly to help with rehydration.</t>
@@ -102,38 +103,39 @@
     </r>
   </si>
   <si>
-    <t>Katas ng Buko</t>
-  </si>
-  <si>
-    <t>Ang tubig ng buko ay isang nakakapreskong at masustansiyang inumin na tanyag sa maraming tropikal na bansa, lalo na sa Timog-Silangang Asya. Ito ang malinaw na likido na matatagpuan sa loob ng batang niyog. Ang tubig ng buko ay likas na pinagmumulan ng mga electrolytes, na tumutulong sa pagpapanumbalik ng likido sa katawan. Dahil dito, mainam itong inumin upang manatiling hydrated, lalo na pagkatapos ng ehersisyo o pagkakasakit. Naglalaman din ito ng mga mahahalagang bitamina at mineral, gaya ng vitamin C, calcium, at potassium, na mahalaga para sa pangkalahatang kalusugan. Bukod pa rito, maaaring makatulong ang tubig ng buko sa pagpapadali ng digestion at maiwasan ang constipation. Mababa ito sa calories at taba, kaya angkop na inumin para sa mga nagbabantay sa kanilang timbang.</t>
-  </si>
-  <si>
-    <t>Paano maghanda ng Buko (Coconut) Water para sa pagtatae?
-Mga hakbang sa paggamit ng Buko Water para sa dehydration.
-Paano gamitin ang tubig ng niyog para sa rehydration?
-Mga tamang pamamaraan ng paggamit ng Buko Water sa mga remedyo sa bahay.
-Paano salain ang tubig ng niyog para sa medicinal na paggamit?
-Paano maghanda ng buko para sa dehydration?
-Paano gamitin ang buko sa pagtulong sa diarrhea?
-Mga hakbang sa paggamit ng buko para sa heat exhaustion.
-Paano gumawa ng buko juice para sa hydration?
-Mga benepisyo ng buko sa dehydration.
-Paano ilagay ang buko meat para sa diarrhea?
-Paano pagsamahin ang buko sa ibang remedyo para sa dehydration?
-Paano ihanda ang buko water para sa heat exhaustion?
-Paano maglagay ng buko sa mga sintomas ng diarrhea?
-Paano mag-imbak ng buko para sa panggagamot?
-Paano gawing smoothie ang buko para sa hydration?
-Paano ihanda ang buko ice para sa heat exhaustion?
-Paano gamitin ang buko milk sa digestive health?
-Paano isama ang buko sa diet para sa recovery mula sa dehydration?
-Paano gumawa ng coconut popsicle para sa hydration?
-Paano ihanda ang buko salad para sa hydration?
-Paano gumawa ng buko juice na may lime para sa diarrhea?
-Paano ihalo ang buko sa iba pang prutas para sa heat exhaustion?
-Paano gamitin ang buko pulp sa mga sintomas ng dehydration?
-Paano ilagay ang buko slices para sa hydration?
-Paano gamitin ang buko sa mga bata para sa diarrhea?</t>
+    <t>Katas ng buko</t>
+  </si>
+  <si>
+    <t>Ang katas ng buko ay isang nakakapreskong at masustansiyang inumin na tanyag sa maraming tropikal na bansa, lalo na sa Timog-Silangang Asya. Ito ang malinaw na likido na matatagpuan sa loob ng batang niyog. Ang tubig ng buko ay likas na pinagmumulan ng mga electrolytes, na tumutulong sa pagpapanumbalik ng likido sa katawan. Dahil dito, mainam itong inumin upang manatiling hydrated, lalo na pagkatapos ng ehersisyo o pagkakasakit. Naglalaman din ito ng mga mahahalagang bitamina at mineral, gaya ng vitamin C, calcium, at potassium, na mahalaga para sa pangkalahatang kalusugan. Bukod pa rito, maaaring makatulong ang tubig ng buko sa pagpapadali ng digestion at maiwasan ang constipation. Mababa ito sa calories at taba, kaya angkop na inumin para sa mga nagbabantay sa kanilang timbang.</t>
+  </si>
+  <si>
+    <t>Katas ng buko
+Paano maghanda ng katas ng buko para sa pagtatae?
+Mga hakbang sa paggamit ng katas ng buko para sa dehydration.
+Paano gamitin ang katas ng buko para sa rehydration?
+Mga tamang pamamaraan ng katas ng buko sa mga remedyo sa bahay.
+Paano salain ang katas ng buko para sa medicinal na paggamit?
+Paano maghanda ng katas ng buko para sa dehydration?
+Paano gamitin ang katas ng buko sa pagtulong sa diarrhea?
+Mga hakbang sa paggamit ng katas ng buko para sa heat exhaustion.
+Paano gumawa ng katas ng buko para sa hydration?
+Mga benepisyo ng katas ng buko sa dehydration.
+Paano ilagay ang katas ng buko para sa diarrhea?
+Paano pagsamahin ang katas ng buko sa ibang remedyo para sa dehydration?
+Paano ihanda ang katas ng buko para sa heat exhaustion?
+Paano maglagay ng katas ng buko sa mga sintomas ng diarrhea?
+Paano mag-imbak ng katas ng buko para sa panggagamot?
+Paano gawing ang katas ng buko para sa hydration?
+Paano ihanda ang katas ng buko para sa heat exhaustion?
+Paano gamitin ang katas ng buko sa digestive health?
+Paano isama ang katas ng buko sa diet para sa recovery mula sa dehydration?
+Paano gumawa ng katas ng buko para sa hydration?
+Paano ihanda ang katas ng buko para sa hydration?
+Paano gumawa ng katas ng buko para sa diarrhea?
+Paano ihalo ang katas ng buko para sa heat exhaustion?
+Paano gamitin ang katas ng buko sa mga sintomas ng dehydration?
+Paano ilagay ang katas ng buko para sa hydration?
+Paano gamitin ang katas ng buko sa mga bata para sa diarrhea?</t>
   </si>
   <si>
     <t>Pumili ng Mga Sariwang Niyog: Pumili ng mga bata at berdeng niyog. Buksan ang Niyog: Gumamit ng matalim na kutsilyo o pambukas ng niyog upang mabutas ang malambot na mata at patuyuin ang tubig sa malinis na lalagyan. Salain ang Tubig: Ibuhos ang tubig ng niyog sa pamamagitan ng malinis na tela na pangsala. Uminom nang Dahan-dahan: Uminom ng tubig ng niyog nang dahan-dahan upang makatulong sa rehydration.</t>
@@ -167,32 +169,33 @@
     <t>Lemongrass</t>
   </si>
   <si>
-    <t>Tanglad, also known as lemongrass, is a popular herb in Southeast Asian cuisine. It has a distinct citrusy aroma and flavor, often used in soups, stews, and teas. Beyond its culinary uses, tanglad offers several health benefits. It is rich in antioxidants, which help protect cells from damage. Additionally, tanglad contains compounds that may have anti-inflammatory and antimicrobial properties. Some studies suggest that tanglad may aid in digestion, relieve anxiety, and boost immunity.</t>
-  </si>
-  <si>
-    <t>How to prepare Tanglad for dehydration?
-Steps to use Tanglad for rehydration.
+    <t>emongrass is a popular herb in Southeast Asian cuisine. It has a distinct citrusy aroma and flavor. Beyond its culinary uses, tanglad offers several health benefits. It is rich in antioxidants, which help protect cells from damage. Additionally, tanglad contains compounds that may have anti-inflammatory and antimicrobial properties. Some studies suggest that tanglad may aid in digestion, relieve anxiety, and boost immunity.</t>
+  </si>
+  <si>
+    <t>Lemongrass
+How to prepare lemongrass for dehydration?
+Steps to use lemongrass for rehydration.
 How to use lemongrass for dehydration?
-Best practices for using Tanglad in home remedies.
+Best practices for using lemongrass in home remedies.
 How to make lemongrass tea for dehydration?
 How to prepare lemongrass for dehydration?
 How to use lemongrass for abdominal pain?
 Steps to use lemongrass for heat exhaustion.
-How to make lemongrass tea for hydration?
+How to make lemongrass for hydration?
 Benefits of lemongrass for dehydration.
 How to apply lemongrass for abdominal pain?
 How to combine lemongrass with other remedies for heat exhaustion?
 How to prepare lemongrass water for heat stroke?
 How to apply lemongrass for symptoms of dehydration?
 How to store lemongrass for medicinal use?
-How to make a lemongrass smoothie for hydration?
-How to prepare lemongrass ice for heat exhaustion?
+How to make a lemongrass for hydration?
+How to prepare lemongrass for heat exhaustion?
 How to use lemongrass for digestive health?
 How to incorporate lemongrass into the diet for recovery from dehydration?
-How to make lemongrass popsicles for hydration?
-How to prepare lemongrass salad for hydration?
-How to make lemongrass tea with honey for abdominal pain?
-How to mix lemongrass with other fruits for heat exhaustion?
+How to make lemongrass for hydration?
+How to prepare lemongrass for hydration?
+How to make lemongrass for abdominal pain?
+How to mix lemongrass  for heat exhaustion?
 How to use lemongrass pulp for symptoms of dehydration?
 How to apply lemongrass slices for hydration?</t>
   </si>
@@ -228,10 +231,11 @@
     <t>Tanglad</t>
   </si>
   <si>
-    <t>Ang tanglad, na kilala rin bilang lemongrass, ay isang tanyag na halamang-gamot sa lutuing Timog-Silangang Asya. Ito ay may kakaibang aroma at lasa na citrus, at madalas na ginagamit sa mga sopas, nilaga, at tsaa. Bukod sa gamit nito sa pagluluto, ang tanglad ay nag-aalok ng iba't ibang benepisyo sa kalusugan. Ito ay mayaman sa mga antioxidants na tumutulong sa proteksyon ng mga selula mula sa pinsala. Bukod pa rito, naglalaman ang tanglad ng mga sangkap na maaaring may anti-inflammatory at antimicrobial na katangian. May ilang pag-aaral na nagpapakita na maaaring makatulong ang tanglad sa digestion, pagpapagaan ng anxiety, at pagpapalakas ng immunity.</t>
-  </si>
-  <si>
-    <t>Paano maghanda ng Tanglad para sa dehydration?
+    <t>Ang tanglad ay isang tanyag na halamang-gamot sa lutuing Timog-Silangang Asya. Bukod sa gamit nito sa pagluluto, ang tanglad ay nag-aalok ng iba't ibang benepisyo sa kalusugan. Ito ay mayaman sa mga antioxidants na tumutulong sa proteksyon ng mga selula mula sa pinsala. Bukod pa rito, naglalaman ang tanglad ng mga sangkap na maaaring may anti-inflammatory at antimicrobial na katangian. May ilang pag-aaral na nagpapakita na maaaring makatulong ang tanglad sa digestion, pagpapagaan ng anxiety, at pagpapalakas ng immunity.</t>
+  </si>
+  <si>
+    <t>Tanglad
+Paano maghanda ng Tanglad para sa dehydration?
 Mga hakbang sa paggamit ng Tanglad para sa rehydration.
 Paano gamitin ang tanglad para sa dehydration?
 Mga tamang pamamaraan ng paggamit ng Tanglad sa mga remedyo sa bahay.
@@ -239,23 +243,23 @@
 Paano maghanda ng tanglad para sa dehydration?
 Paano gamitin ang tanglad para sa abdominal pain?
 Mga hakbang sa paggamit ng tanglad para sa heat exhaustion.
-Paano gumawa ng tanglad tea para sa hydration?
+Paano gumawa ng tanglad para sa hydration?
 Mga benepisyo ng tanglad sa dehydration.
 Paano ilagay ang tanglad para sa abdominal pain?
 Paano pagsamahin ang tanglad sa ibang remedyo para sa heat exhaustion?
-Paano ihanda ang tanglad water para sa heat stroke?
+Paano ihanda ang tanglad water para sa heat stroke?s
 Paano maglagay ng tanglad sa mga sintomas ng dehydration?
 Paano mag-imbak ng tanglad para sa panggagamot?
 Paano gawing smoothie ang tanglad para sa hydration?
-Paano ihanda ang tanglad ice para sa heat exhaustion?
+Paano ihanda ang tanglad para sa heat exhaustion?
 Paano gamitin ang tanglad sa digestive health?
 Paano isama ang tanglad sa diet para sa recovery mula sa dehydration?
-Paano gumawa ng tanglad popsicle para sa hydration?
-Paano ihanda ang tanglad salad para sa hydration?
-Paano gumawa ng tanglad tea na may honey para sa abdominal pain?
-Paano ihalo ang tanglad sa iba pang prutas para sa heat exhaustion?
+Paano gumawa ng tanglad para sa hydration?
+Paano ihanda ang tanglad para sa hydration?
+Paano gumawa ng tanglad para sa abdominal pain?
+Paano ihalo ang tanglad para sa heat exhaustion?
 Paano gamitin ang tanglad pulp sa mga sintomas ng dehydration?
-Paano ilagay ang tanglad slices para sa hydration?</t>
+Paano ilagay ang tanglad para sa hydration?</t>
   </si>
   <si>
     <t>Magtipon ng Mga Sangkap: Mga sariwang tanglad, tubig, mga opsyonal na pampatamis (pulot o asukal), at mga opsyonal na pampalasa (luya o lemon). Hugasan at Tadtarin: Hugasan nang maigi ang tanglad at tadtarin ito ng maliliit. Pakuluan ang Tubig: Pakuluan ang isang palayok ng tubig. Magdagdag ng Tanglad: Idagdag ang tinadtad na tanglad sa kumukulong tubig. Kumulo: Bawasan ang apoy at hayaang kumulo ng mga 10-15 minuto. Salain: Salain ang tsaa para matanggal ang mga piraso ng tanglad. Ihain: Uminom ng iyong tanglad tea nang dahan-dahang mainit o hayaan itong lumamig.</t>
@@ -292,40 +296,41 @@
     <t>Lagundi, also known as the Chinese violet, is a popular medicinal plant in the Philippines. It is known for its potential to alleviate various health conditions, including nasal congestion.Lagundi contains compounds that may have anti-inflammatory and decongestant properties. These compounds can help reduce swelling in the nasal passages, making it easier to breathe. Additionally, lagundi may help to soothe irritated mucous membranes and reduce congestion.</t>
   </si>
   <si>
-    <t>How to prepare Lagundi for nasal congestion?
+    <t>Lagundi
+How to prepare Lagundi for nasal congestion?
 Steps to use Lagundi for nasal congestion.
 How to use Lagundi for nasal congestion?
 Best practices for using Lagundi in home remedies.
-How to make Lagundi tea for nasal congestion?
+How to make Lagundi for nasal congestion?
 How to prepare lagundi for nasal congestion?
 How to use lagundi for a broken toe?
 Steps to use lagundi for cough.
-How to make lagundi tea for diarrhea?
+How to make lagundi for diarrhea?
 How to use lagundi for nose bleeding?
 How to apply lagundi for vertigo?
 How to use lagundi for head injury?
 How to make lagundi paste for headache?
 How to apply lagundi for cold symptoms?
 Benefits of lagundi for nasal congestion.
-How to mix lagundi with other herbal remedies for cough?
-How to use lagundi oil for a broken toe?
-How to make lagundi syrup for diarrhea?
+How to mix lagundi for cough?
+How to use lagundi for a broken toe?
+How to make lagundi for diarrhea?
 How to store lagundi for medicinal use?
-How to make lagundi tea with honey for cough?
+How to make lagundi for cough?
 How to use lagundi for children with vertigo?
-How to apply lagundi leaves for headache symptoms?
+How to apply lagundi for headache symptoms?
 How to make a lagundi infusion for cold?
 How to use lagundi for nose bleeding?
-How to make lagundi ointment for broken toe?
+How to make lagundi for broken toe?
 How to use lagundi for dizziness?
 How to apply lagundi tea for cold symptoms?
 How to make a lagundi poultice for head injury?
 How to use lagundi for digestive health?
-How to combine lagundi with other fruits for cough?
-How to make lagundi oil infusion for pain relief?
+How to combine lagundi for cough?
+How to make lagundi for pain relief?
 How to use lagundi for allergic rhinitis?
 How to use lagundi for symptoms of vertigo?
-How to make lagundi tincture for medicinal use?</t>
+How to make lagundi for medicinal use?</t>
   </si>
   <si>
     <t>Gather Ingredients: Fresh or dried lagundi leaves, water. Wash and Chop: Thoroughly wash the lagundi leaves and chop them into small pieces. Boil Water: Bring 2 cups of water to a boil. Add Lagundi: Add half a cup of chopped fresh or dried lagundi leaves to the boiling water. Simmer: Reduce the heat and let it simmer for 10-15 minutes. Strain: Strain the mixture to remove the leaves. Drink: Drink half a cup of the decoction three times a day.</t>
@@ -359,40 +364,41 @@
     <t>Ang lagundi, na kilala rin bilang Chinese violet, ay isang kilalang halamang-gamot sa Pilipinas. Ito ay kilala sa kakayahang magpaginhawa ng iba't ibang kondisyon sa kalusugan, kabilang ang baradong ilong. Ang lagundi ay naglalaman ng mga sangkap na maaaring may anti-inflammatory at decongestant na katangian. Ang mga sangkap na ito ay maaaring makatulong na mabawasan ang pamamaga sa mga daanan ng ilong, na nagpapadali ng paghinga. Bukod pa rito, maaaring makatulong ang lagundi sa pagpapakalma ng iritadong mga mucous membrane at mabawasan ang congestion.</t>
   </si>
   <si>
-    <t>Paano maghanda ng Lagundi para sa nasal congestion?
+    <t>Lagundi
+Paano ihanda ang Lagundi para sa nasal congestion?
 Mga hakbang sa paggamit ng Lagundi para sa nasal congestion.
 Paano gamitin ang Lagundi para sa nasal congestion?
-Mga tamang pamamaraan ng paggamit ng Lagundi sa mga remedyo sa bahay.
-Paano gumawa ng tsaa ng Lagundi para sa nasal congestion?
-Paano maghanda ng lagundi para sa nasal congestion?
-Paano gamitin ang lagundi para sa broken toe?
+M mga pinakamahusay na pamamaraan sa paggamit ng Lagundi sa mga remedyo sa bahay.
+Paano gumawa ng Lagundi para sa nasal congestion?
+Paano ihanda ang lagundi para sa nasal congestion?
+Paano gamitin ang lagundi para sa nabroken na daliri sa paa?
 Mga hakbang sa paggamit ng lagundi para sa ubo.
-Paano gumawa ng lagundi tea para sa diarrhea?
-Paano gamitin ang lagundi para sa nose bleeding?
+Paano gumawa ng lagundi para sa pagtatae?
+Paano gamitin ang lagundi para sa pagdurugo ng ilong?
 Paano ilagay ang lagundi para sa vertigo?
-Paano gamitin ang lagundi sa head injury?
-Paano gumawa ng lagundi paste para sa headache?
-Paano maglagay ng lagundi sa cold symptoms?
-Mga benepisyo ng lagundi sa nasal congestion.
-Paano ihalo ang lagundi sa ibang herbal remedies para sa ubo?
-Paano gamitin ang lagundi oil para sa broken toe?
-Paano gumawa ng lagundi syrup para sa diarrhea?
-Paano mag-imbak ng lagundi para sa panggagamot?
-Paano gumawa ng lagundi tea na may honey para sa ubo?
-Paano gamitin ang lagundi sa mga bata para sa vertigo?
-Paano ilagay ang lagundi leaves sa mga sintomas ng headache?
-Paano gumawa ng lagundi infusion para sa cold?
-Paano gamitin ang lagundi sa nose bleeding?
-Paano gumawa ng lagundi ointment para sa broken toe?
-Paano gamitin ang lagundi sa pagkahilo?
-Paano maglagay ng lagundi tea sa mga sintomas ng cold?
-Paano gumawa ng lagundi poultice para sa head injury?
-Paano gamitin ang lagundi sa digestive health?
-Paano pagsamahin ang lagundi sa iba pang prutas para sa ubo?
-Paano gumawa ng lagundi oil infusion para sa pain relief?
-Paano gamitin ang lagundi sa allergic rhinitis?
-Paano gamitin ang lagundi sa mga sintomas ng vertigo?
-Paano gumawa ng lagundi tincture para sa panggagamot?</t>
+Paano gamitin ang lagundi para sa pinsala sa ulo?
+Paano gumawa ng lagundi paste para sa sakit ng ulo?
+Paano ilagay ang lagundi para sa mga sintomas ng sipon?
+Mga benepisyo ng lagundi para sa nasal congestion.
+Paano ihalo ang lagundi para sa ubo?
+Paano gamitin ang lagundi para sa nabroken na daliri sa paa?
+Paano gumawa ng lagundi para sa pagtatae?
+Paano itago ang lagundi para sa medikal na paggamit?
+Paano gumawa ng lagundi para sa ubo?
+Paano gamitin ang lagundi para sa mga bata na may vertigo?
+Paano ilagay ang lagundi para sa mga sintomas ng sakit ng ulo?
+Paano gumawa ng lagundi infusion para sa sipon?
+Paano gamitin ang lagundi para sa pagdurugo ng ilong?
+Paano gumawa ng lagundi para sa nabroken na daliri sa paa?
+Paano gamitin ang lagundi para sa pagkahilo?
+Paano ilagay ang lagundi tsaa para sa mga sintomas ng sipon?
+Paano gumawa ng lagundi poultice para sa pinsala sa ulo?
+Paano gamitin ang lagundi para sa kalusugan ng pagtunaw?
+Paano pagsamahin ang lagundi para sa ubo?
+Paano gumawa ng lagundi para sa pag-alis ng sakit?
+Paano gamitin ang lagundi para sa allergic rhinitis?
+Paano gamitin ang lagundi para sa mga sintomas ng vertigo?
+Paano gumawa ng lagundi para sa medikal na paggamit?</t>
   </si>
   <si>
     <t>Magtipon ng Mga Sangkap: Sariwa o tuyo na dahon ng lagundi, tubig. Hugasan at Tadtarin: Hugasan nang maigi ang mga dahon ng lagundi at tadtarin ito ng maliliit. Pakuluan ang Tubig: Pakuluan ang 2 basong tubig. Magdagdag ng Lagundi: Magdagdag ng kalahating tasa ng tinadtad na sariwa o tuyo na dahon ng lagundi sa kumukulong tubig. Kumulo: Bawasan ang apoy at hayaang kumulo ng 10-15 minuto. Salain: Salain ang pinaghalong para maalis ang mga dahon. Inumin: Uminom ng kalahating tasa ng decoction tatlong beses sa isang araw.</t>
@@ -426,14 +432,15 @@
     <t>Oregano</t>
   </si>
   <si>
-    <t>Oregano is a popular herb used in cooking and traditional medicine. It is known for its strong, pungent aroma and flavor. In addition to its culinary uses, oregano has been used for centuries to treat various health conditions, including nasal congestion. Oregano contains compounds that may have anti-inflammatory and antimicrobial properties. These compounds can help reduce swelling in the nasal passages and soothe irritated mucous membranes. This can help alleviate congestion and make breathing easier. Oregano can be used in various forms, such as tea, oil, or capsules.</t>
-  </si>
-  <si>
-    <t>How to prepare Oregano for nasal congestion?
+    <t>Oregano is a popular herb used in cooking and traditional medicine. It is known for its strong, pungent aroma and flavor. In addition to its culinary uses, oregano has been used for centuries to treat various health conditions, including nasal congestion. Oregano contains compounds that may have anti-inflammatory and antimicrobial properties. These compounds can help reduce swelling in the nasal passages and soothe irritated mucous membranes. This can help alleviate congestion and make breathing easier.</t>
+  </si>
+  <si>
+    <t>Oregano
+How to prepare Oregano for nasal congestion?
 Steps to use Oregano for nasal congestion.
 How to use Oregano for nasal congestion?
 Best practices for using Oregano in home remedies.
-How to make Oregano tea for nasal congestion?</t>
+How to make Oregano for nasal congestion?</t>
   </si>
   <si>
     <t>Gather Ingredients: Fresh oregano leaves, water. Wash and Chop: Thoroughly wash the oregano leaves and chop them into small pieces. Boil Water: Bring 2 cups of water to a boil. Add Oregano: Add half a cup of chopped oregano leaves to the boiling water. Simmer: Reduce the heat and let it simmer for 10-15 minutes. Strain: Strain the mixture to remove the leaves. Drink: Drink half a cup of the decoction three times a day.</t>
@@ -458,14 +465,15 @@
     </r>
   </si>
   <si>
-    <t>Ang oregano ay isang tanyag na halamang-gamot na ginagamit sa pagluluto at tradisyunal na medisina. Kilala ito sa malakas at maanghang na aroma at lasa. Bukod sa gamit nito sa pagluluto, matagal nang ginagamit ang oregano upang gamutin ang iba't ibang kondisyon sa kalusugan, kabilang ang baradong ilong. Ang oregano ay naglalaman ng mga sangkap na maaaring may anti-inflammatory at antimicrobial na katangian. Ang mga sangkap na ito ay maaaring makatulong na mabawasan ang pamamaga sa mga daanan ng ilong at magpakalma ng iritadong mga mucous membrane. Makakatulong ito upang mapagaan ang congestion at mapadali ang paghinga. Maaaring gamitin ang oregano sa iba't ibang anyo, tulad ng tsaa, langis, o kapsula.</t>
-  </si>
-  <si>
-    <t>Paano maghanda ng Oregano para sa nasal congestion?
+    <t>Ang oregano ay isang tanyag na halamang-gamot na ginagamit sa pagluluto at tradisyunal na medisina. Kilala ito sa malakas at maanghang na aroma at lasa. Bukod sa gamit nito sa pagluluto, matagal nang ginagamit ang oregano upang gamutin ang iba't ibang kondisyon sa kalusugan, kabilang ang baradong ilong. Ang oregano ay naglalaman ng mga sangkap na maaaring may anti-inflammatory at antimicrobial na katangian. Ang mga sangkap na ito ay maaaring makatulong na mabawasan ang pamamaga sa mga daanan ng ilong at magpakalma ng iritadong mga mucous membrane. Makakatulong ito upang mapagaan ang congestion at mapadali ang paghinga.</t>
+  </si>
+  <si>
+    <t>Oregano
+Paano maghanda ng Oregano para sa nasal congestion?
 Mga hakbang sa paggamit ng Oregano para sa nasal congestion
 Paano gamitin ang Oregano para sa nasal congestion?
 Mga tamang pamamaraan ng paggamit ng Oregano sa mga remedyo sa bahay
-Paano gumawa ng tsaa ng Oregano para sa nasal congestion?</t>
+Paano gumawa ng Oregano para sa nasal congestion?</t>
   </si>
   <si>
     <t>Kunin ang mga Sangkap: Sariwang dahon ng oregano, tubig. Hugasan at Tadtarin: Hugasan nang mabuti ang mga dahon ng oregano at tadtarin ito ng maliliit na piraso. Pakuluan ang Tubig: Pakuluan ang 2 tasa ng tubig. Idagdag ang Oregano: Idagdag ang kalahating tasa ng tinadtad na dahon ng oregano sa kumukulong tubig. Pakuluin: Bawasan ang init at hayaang kumulo ng 10-15 minuto. Salain: Salain ang pinagpakuluan upang alisin ang mga dahon. Inumin: Uminom ng kalahating tasa ng pinagpakuluan tatlong beses sa isang araw.</t>
@@ -493,13 +501,11 @@
     <t>Sambong</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>Sambong is a medicinal plant native to the Philippines. It is known for its potential health benefits, especially for urinary tract problems. The leaves of sambong contain compounds that may help to relax the muscles of the urinary tract, promote urination, and reduce inflammation. This can be beneficial for conditions such as urinary tract infections (UTIs) and kidney stones.</t>
-  </si>
-  <si>
-    <t>How to prepare Sambong for cough?
+    <t>Sambong is a medicinal plant native to the Philippines. It is known for its potential health benefits, especially for urinary tract problems.sambong contain compounds that may help to relax the muscles of the urinary tract, promote urination, and reduce inflammation. This can be beneficial for conditions such as urinary tract infections (UTIs) and kidney stones.</t>
+  </si>
+  <si>
+    <t>Sambong
+How to prepare Sambong for cough?
 Steps to use Sambong for cough
 How to use Sambong for cough?
 Best practices for using Sambong in home remedies
@@ -511,11 +517,11 @@
 How to use sambong for cough?
 How to apply sambong for nasal congestion?
 Benefits of sambong for cold
-How to mix sambong with other herbal remedies for cough?
-How to use sambong oil for head injury?
-How to make sambong syrup for food poisoning?
+How to  sambong for cough?
+How to use sambong for head injury?
+How to make sambong for food poisoning?
 How to store sambong for medicinal use?
-How to make sambong tea with honey for cough?
+How to make sambong for cough?
 How to use sambong for children with cold?
 How to apply sambong leaves for symptoms of food poisoning?
 How to make sambong infusion for broken toe?
@@ -524,22 +530,21 @@
 How to use sambong for digestive health?
 How to make a sambong poultice for cough?
 How to use sambong for allergic rhinitis?
-How to make sambong ointment for broken toe?
+How to make sambong for broken toe?
 How to use sambong for nausea and vomiting?
-How to make sambong tincture for medicinal use?
+How to make sambong for medicinal use?
 How to use sambong for stress relief?
 How to apply sambong to wounds?
-How to combine sambong with other fruits for cough?
+How to combine sambong for cough?
 How to use sambong for hangover?
-How to prepare sambong with lemon for cold?
+How to prepare sambong for cold?
 How to use sambong for fever?
-How to apply sambong tea for nasal congestion?
-How to make sambong capsules for medicinal use?
-How to mix sambong with other herbal teas?
+How to apply sambong for nasal congestion?
+How to make sambong for medicinal use?
 How to use sambong for respiratory issues?
 How to make sambong extract for head injury?
 How to use sambong for skin irritations?
-How to make sambong ice cubes for headache?</t>
+How to make sambong for headache?</t>
   </si>
   <si>
     <t>Step 1: Harvesting: Gather fresh sambong leaves from a clean, unpolluted environment. Step 2: Washing: Rinse the leaves thoroughly under running water to remove dirt and impurities. Step 3: Preparation: Tea: Boil a handful of sambong leaves in a cup of water for 5-10 minutes. Strain and let it cool before drinking. Poultice: Crush the leaves into a paste and apply directly to the affected area. Gargle: For sore throat, gargle with a warm sambong tea. Step 4: Uses: Nasal congestion and cough: Drink the sambong tea to help clear congestion and soothe coughs. Broken pain: Apply the sambong poultice to the injured area to reduce pain and inflammation. Nosebleed: Apply a cold compress soaked in sambong tea to the bridge of the nose to help stop bleeding. Food poisoning: Drink sambong tea to help soothe the digestive system and relieve symptoms like nausea and diarrhea. Head injury: Apply a cold compress soaked in sambong tea to the affected area to reduce swelling and pain. Cold: Drink sambong tea to help boost immunity and alleviate cold symptoms.</t>
@@ -573,47 +578,40 @@
     <t>Ang sambong ay isang halamang-gamot na katutubo sa Pilipinas. Kilala ito sa mga potensyal na benepisyo sa kalusugan, lalo na para sa mga problema sa urinary tract. Ang mga dahon ng sambong ay naglalaman ng mga sangkap na maaaring makatulong sa pagpaparelaks ng mga kalamnan ng urinary tract, pagpapasigla ng pag-ihi, at pagbabawas ng pamamaga. Ito ay maaaring maging kapaki-pakinabang para sa mga kondisyon tulad ng urinary tract infections (UTIs) at mga bato sa bato.</t>
   </si>
   <si>
-    <t>Paano maghanda ng Sambong para sa ubo?
-Mga hakbang sa paggamit ng Sambong para sa ubo
-Paano gamitin ang Sambong para sa ubo?
-Mga tamang pamamaraan ng paggamit ng Sambong sa mga remedyo sa bahay
-Paano gumawa ng tsaa ng Sambong para sa ubo?
+    <t>Sambong
+Paano maghanda ng sambong para sa ubo?
+Mga hakbang sa paggamit ng sambong para sa ubo.
+Paano gamitin ang sambong para sa ubo?
+Mga pinakamainam na paraan ng paggamit ng sambong sa mga halamang gamot sa bahay.
+Paano gumawa ng sambong tsaa para sa ubo?
 Paano maghanda ng sambong para sa sipon?
-Paano gamitin ang sambong para sa head injury?
-Mga hakbang sa paggamit ng sambong para sa food poisoning
-Paano gumawa ng sambong tea para sa broken toe?
+Paano gamitin ang sambong para sa pinsala sa ulo?
+Mga hakbang sa paggamit ng sambong para sa food poisoning.
+Paano gumawa ng sambong tsaa para sa nabaling daliri sa paa?
 Paano gamitin ang sambong para sa ubo?
-Paano ilagay ang sambong para sa nasal congestion?
-Mga benepisyo ng sambong sa sipon
-Paano ihalo ang sambong sa iba pang herbal remedies para sa ubo?
-Paano gamitin ang sambong oil para sa head injury?
-Paano gumawa ng sambong syrup para sa food poisoning?
-Paano mag-imbak ng sambong para sa panggagamot?
-Paano gumawa ng sambong tea na may honey para sa ubo?
-Paano gamitin ang sambong sa mga bata para sa sipon?
-Paano ilagay ang sambong leaves sa mga sintomas ng food poisoning?
-Paano gumawa ng sambong infusion para sa broken toe?
-Paano gamitin ang sambong sa mga sintomas ng head injury?
-Paano ilagay ang sambong sa mga sintomas ng nasal congestion?
-Paano gamitin ang sambong sa digestive health?
+Paano ilapat ang sambong para sa nasal congestion?
+Mga benepisyo ng sambong para sa sipon.
+Paano gamitin ang sambong para sa ubo?
+Paano gamitin ang sambong para sa pinsala sa ulo?
+Paano gumawa ng sambong para sa food poisoning?
+Paano itago ang sambong para sa medikal na gamit?
+Paano gumawa ng sambong para sa ubo?
+Paano gamitin ang sambong para sa mga bata na may sipon?
+Paano ilapat ang mga dahon ng sambong para sa mga sintomas ng food poisoning?
+Paano gumawa ng sambong infusion para sa nabaling daliri sa paa?
+Paano gamitin ang sambong para sa mga sintomas ng pinsala sa ulo?
+Paano ilapat ang sambong para sa mga sintomas ng nasal congestion?
+Paano gamitin ang sambong para sa kalusugan ng tiyan?
 Paano gumawa ng sambong poultice para sa ubo?
-Paano gamitin ang sambong sa allergic rhinitis?
-Paano gumawa ng sambong ointment para sa broken toe?
-Paano gamitin ang sambong sa nausea at vomiting?
-Paano gumawa ng sambong tincture para sa panggagamot?
-Paano gamitin ang sambong sa stress relief?
-Paano ilagay ang sambong sa mga sugat?
-Paano pagsamahin ang sambong sa iba pang prutas para sa ubo?
-Paano gamitin ang sambong sa pagkakaroon ng hangover?
-Paano maghanda ng sambong na may lemon para sa cold?
-Paano gamitin ang sambong sa lagnat?
-Paano ilagay ang sambong tea para sa nasal congestion?
-Paano gumawa ng sambong capsules para sa panggagamot?
-Paano ihalo ang sambong sa iba pang herbal tea?
-Paano gamitin ang sambong sa respiratory issues?
-Paano gumawa ng sambong extract para sa head injury?
-Paano gamitin ang sambong sa skin irritations?
-Paano gumawa ng sambong ice cubes para sa headache?</t>
+Paano gamitin ang sambong para sa allergic rhinitis?
+Paano gumawa ng sambong para sa nabaling daliri sa paa?
+Paano gamitin ang sambong para sa pagkahilo at pagsusuka?
+Paano gumawa ng sambong para sa medikal na gamit?
+Paano gamitin ang sambong para sa pagpapahinga mula sa stress?
+Paano ilapat ang sambong sa mga sugat?
+Paano pagsamahin ang sambong para sa ubo?
+Paano gamitin ang sambong para sa hangover?
+Paano maghanda?</t>
   </si>
   <si>
     <t>Hakbang 1: Pag-kuha: Pumili ng sariwang mga dahon ng sambong mula sa malinis at hindi maruming lugar. Hakbang 2: Paghuhugas: Hugasan nang mabuti ang mga dahon sa ilalim ng tubig na umaagos upang alisin ang dumi at mga impurities. Hakbang 3: Paghahanda: Tea: Pakuluan ang isang dakot ng mga dahon ng sambong sa isang tasa ng tubig sa loob ng 5-10 minuto. Salain at hayaang lumamig bago uminom. Poultice: Dudugin ang mga dahon hanggang maging paste at ilapat nang direkta sa apektadong lugar. Gargle: Para sa namamagang lalamunan, magmumog ng maligamgam na tsaang sambong. Hakbang 4: Mga Gamit: Kasikipan ng ilong at ubo: Uminom ng tsaang sambong upang makatulong na malinis ang kasikipan at mapawi ang ubo. Sakit ng buto: Ilapat ang sambong poultice sa nasugatan na lugar upang mabawasan ang sakit at pamamaga. Pagdurugo ng ilong: Ilapat ang malamig na compress na binabad sa tsaang sambong sa tulay ng ilong upang makatulong na ihinto ang pagdurugo. Pagkalason sa pagkain: Uminom ng tsaang sambong upang makatulong na mapawi ang sistema ng pagtunaw at maibsan ang mga sintomas tulad ng pagsusuka at pagtatae. Sakit sa ulo: Ilapat ang malamig na compress na binabad sa tsaang sambong sa apektadong lugar upang mabawasan ang pamamaga at sakit. Sipon: Uminom ng tsaang sambong upang makatulong na palakasin ang immune system at mapawi ang mga sintomas ng sipon.</t>
@@ -644,13 +642,14 @@
     </r>
   </si>
   <si>
-    <t>Forest Tea</t>
-  </si>
-  <si>
-    <t>Tsaang gubat, also known as wild mint or peppermint, is a popular herbal tea in the Philippines. It is known for its refreshing, minty flavor and potential health benefits. Tsaang gubat contains compounds that may have anti-inflammatory, antioxidant, and digestive properties. These compounds can help soothe the digestive tract, relieve bloating and gas, and promote overall digestive health. Additionally, tsaang gubat may help to reduce stress and anxiety.</t>
-  </si>
-  <si>
-    <t>How to prepare Tsaang Gubat for abdominal pain?
+    <t>Forest tea</t>
+  </si>
+  <si>
+    <t>Forest tea also known as wild mint or peppermint, is a popular herbal tea in the Philippines. It is known for its refreshing, minty flavor and potential health benefits. Tsaang gubat contains compounds that may have anti-inflammatory, antioxidant, and digestive properties. These compounds can help soothe the digestive tract, relieve bloating and gas, and promote overall digestive health. Additionally, Forest tea may help to reduce stress and anxiety.</t>
+  </si>
+  <si>
+    <t>Forest tea
+How to prepare Tsaang Gubat for abdominal pain?
 Steps to use Tsaang Gubat for abdominal pain
 How to use Tsaang Gubat for abdominal pain?
 Best practices for using Tsaang Gubat in home remedies
@@ -684,13 +683,14 @@
     </r>
   </si>
   <si>
-    <t>Tsaang Gubat</t>
+    <t>Tsaang gubat</t>
   </si>
   <si>
     <t>Ang tsaang gubat, na kilala rin bilang wild mint o peppermint, ay isang tanyag na halamang-gamot na tsaa sa Pilipinas. Kilala ito sa nakakapreskong, minty na lasa at mga potensyal na benepisyo sa kalusugan. Ang tsaang gubat ay naglalaman ng mga sangkap na maaaring may anti-inflammatory, antioxidant, at digestive na katangian. Ang mga sangkap na ito ay maaaring makatulong na pakalmahin ang digestive tract, bawasan ang kabag at hangin sa tiyan, at magtaguyod ng pangkalahatang kalusugan ng pagtunaw. Bukod pa rito, maaaring makatulong ang tsaang gubat sa pagpapababa ng stress at anxiety.</t>
   </si>
   <si>
-    <t>Paano maghanda ng Tsaang Gubat para sa pananakit ng tiyan?
+    <t>Tsaang gubat
+Paano maghanda ng Tsaang Gubat para sa pananakit ng tiyan?
 Mga hakbang sa paggamit ng Tsaang Gubat para sa pananakit ng tiyan
 Paano gamitin ang Tsaang Gubat para sa pananakit ng tiyan?
 Mga tamang pamamaraan ng paggamit ng Tsaang Gubat sa mga remedyo sa bahay
@@ -727,19 +727,20 @@
     <t>Ginger</t>
   </si>
   <si>
-    <t>Luya, also known as ginger, is a popular spice and medicinal herb used in various cuisines around the world. It has a distinct, pungent flavor and aroma. Luya is rich in antioxidants and bioactive compounds that may have health benefits. Some of these compounds include gingerol, shogaol, and zingerone. These compounds may help reduce inflammation, improve digestion, and relieve nausea. Additionally, luya has been studied for its potential to lower blood sugar levels and improve heart health.</t>
-  </si>
-  <si>
-    <t>How to prepare Luya for abdominal pain?
+    <t>Ginger, is a popular spice and medicinal herb used in various cuisines around the world. It has a distinct, pungent flavor and aroma. Ginger is rich in antioxidants and bioactive compounds that may have health benefits. Some of these compounds include gingerol, shogaol, and zingerone. These compounds may help reduce inflammation, improve digestion, and relieve nausea. Additionally, Ginger has been studied for its potential to lower blood sugar levels and improve heart health.</t>
+  </si>
+  <si>
+    <t>Ginger
+How to prepare Luya for abdominal pain?
 Steps to use Luya for abdominal pain
 How to use Luya for abdominal pain?
 Best practices for using Luya in home remedies
-How to make Luya tea for abdominal pain?
+How to make Luya for abdominal pain?
 How to prepare Luya for convulsions?
 Steps to use Luya for convulsions
 How to use Luya for convulsions?
 Best practices for using Luya in home remedies for convulsions
-How to make Luya tea for convulsions?
+How to make Luya for convulsions?
 How to prepare Luya for vertigo?
 Steps to use Luya for vertigo
 How to use Luya for vertigo?
@@ -749,17 +750,17 @@
 Steps to use Luya for food poisoning
 How to use Luya for food poisoning?
 Best practices for using Luya in home remedies for food poisoning
-How to make Luya tea for food poisoning?
+How to make Luya for food poisoning?
 How to prepare Luya for headache?
 Steps to use Luya for headache
 How to use Luya for headache?
 Best practices for using Luya in home remedies for headache
-How to make Luya tea for headache?
+How to make Luya for headache?
 How to prepare Luya for colds?
 Steps to use Luya for colds
 How to use Luya for colds?
 Best practices for using Luya in home remedies for colds
-How to make Luya tea for colds?</t>
+How to make Luya for colds?</t>
   </si>
   <si>
     <t>Gather Ingredients: Fresh ginger root, water, optional sweeteners (honey or sugar). Wash and Slice: Thoroughly wash the ginger root and slice it into thin pieces. Boil Water: Bring 2 cups of water to a boil. Add Ginger: Add the sliced ginger to the boiling water. Simmer: Reduce the heat and let it simmer for 10-15 minutes. Strain: Strain the mixture to remove the ginger slices. Optional Additions: Add honey or sugar to sweeten if desired. Drink: Drink half a cup of the ginger tea three times a day.</t>
@@ -786,41 +787,37 @@
     <t>Ang luya, na kilala rin bilang ginger, ay isang tanyag na pampalasa at halamang-gamot na ginagamit sa iba't ibang lutuin sa buong mundo. Ito ay may kakaibang, maanghang na lasa at aroma. Ang luya ay mayaman sa antioxidants at bioactive na mga sangkap na maaaring maghatid ng mga benepisyo sa kalusugan. Ilan sa mga sangkap na ito ay ang gingerol, shogaol, at zingerone. Ang mga sangkap na ito ay maaaring makatulong sa pagbabawas ng pamamaga, pagpapabuti ng digestion, at pagpapagaan ng pagduduwal. Bukod pa rito, pinag-aaralan ang luya para sa potensyal nito na pababain ang antas ng asukal sa dugo at pagbutihin ang kalusugan ng puso.</t>
   </si>
   <si>
-    <t>Paano maghanda ng Luya para sa pananakit ng tiyan?
-Mga hakbang sa paggamit ng Luya para sa pananakit ng tiyan
+    <t>Luya
+Paano maghanda ng Luya para sa pananakit ng tiyan?
+Mga hakbang sa paggamit ng Luya para sa pananakit ng tiyan.
 Paano gamitin ang Luya para sa pananakit ng tiyan?
-Mga tamang pamamaraan ng paggamit ng Luya sa mga remedyo sa bahay
-Paano gumawa ng tsaa ng Luya para sa pananakit ng tiyan?
-Paano maghanda ng Luya para sa kombulsyon?
-Mga hakbang sa paggamit ng Luya para sa kombulsyon
-Paano gamitin ang Luya para sa kombulsyon?
-Mga tamang pamamaraan ng paggamit ng Luya sa mga remedyo sa bahay para sa kombulsyon
-Paano gumawa ng tsaa ng Luya para sa kombulsyon?
-Paano maghanda ng Luya para sa pananakit ng tiyan?
-Mga hakbang sa paggamit ng Luya para sa pananakit ng tiyan
-Paano gamitin ang Luya para sa pananakit ng tiyan?
-Mga tamang pamamaraan ng paggamit ng Luya sa mga remedyo sa bahay para sa pananakit ng tiyan
-Paano gumawa ng tsaa ng Luya para sa pananakit ng tiyan?
+Pinakamahusay na paraan ng paggamit ng Luya sa mga halamang gamot sa bahay.
+Paano gumawa ng Luya para sa pananakit ng tiyan?
+Paano maghanda ng Luya para sa mga kombulsyon?
+Mga hakbang sa paggamit ng Luya para sa mga kombulsyon.
+Paano gamitin ang Luya para sa mga kombulsyon?
+Pinakamahusay na paraan ng paggamit ng Luya sa mga halamang gamot sa bahay para sa mga kombulsyon.
+Paano gumawa ng Luya para sa mga kombulsyon?
 Paano maghanda ng Luya para sa pagkahilo?
-Mga hakbang sa paggamit ng Luya para sa pagkahilo
+Mga hakbang sa paggamit ng Luya para sa pagkahilo.
 Paano gamitin ang Luya para sa pagkahilo?
-Mga tamang pamamaraan ng paggamit ng Luya sa mga remedyo sa bahay para sa pagkahilo
-Paano gumawa ng tsaa ng Luya para sa pagkahilo?
-Paano maghanda ng Luya para sa pagkalason sa pagkain?
-Mga hakbang sa paggamit ng Luya para sa pagkalason sa pagkain
-Paano gamitin ang Luya para sa pagkalason sa pagkain?
-Mga tamang pamamaraan ng paggamit ng Luya sa mga remedyo sa bahay para sa pagkalason sa pagkain
-Paano gumawa ng tsaa ng Luya para sa pagkalason sa pagkain?
+Pinakamahusay na paraan ng paggamit ng Luya sa mga halamang gamot sa bahay para sa pagkahilo.
+Paano gumawa ng Luya tsaa para sa pagkahilo?
+Paano maghanda ng Luya para sa food poisoning?
+Mga hakbang sa paggamit ng Luya para sa food poisoning.
+Paano gamitin ang Luya para sa food poisoning?
+Pinakamahusay na paraan ng paggamit ng Luya sa mga halamang gamot sa bahay para sa food poisoning.
+Paano gumawa ng Luya para sa food poisoning?
 Paano maghanda ng Luya para sa sakit ng ulo?
-Mga hakbang sa paggamit ng Luya para sa sakit ng ulo
+Mga hakbang sa paggamit ng Luya para sa sakit ng ulo.
 Paano gamitin ang Luya para sa sakit ng ulo?
-Mga tamang pamamaraan ng paggamit ng Luya sa mga remedyo sa bahay para sa sakit ng ulo
-Paano gumawa ng tsaa ng Luya para sa sakit ng ulo?
+Pinakamahusay na paraan ng paggamit ng Luya sa mga halamang gamot sa bahay para sa sakit ng ulo.
+Paano gumawa ng Luya para sa sakit ng ulo?
 Paano maghanda ng Luya para sa sipon?
-Mga hakbang sa paggamit ng Luya para sa sipon
+Mga hakbang sa paggamit ng Luya para sa sipon.
 Paano gamitin ang Luya para sa sipon?
-Mga tamang pamamaraan ng paggamit ng Luya sa mga remedyo sa bahay para sa sipon
-Paano gumawa ng tsaa ng Luya para sa sipon?</t>
+Pinakamahusay na paraan ng paggamit ng Luya sa mga halamang gamot sa bahay para sa sipon.
+Paano gumawa ng Luya para sa sipon?</t>
   </si>
   <si>
     <t>Kunin ang mga Sangkap: Sariwang ugat ng luya, tubig, opsyonal na pampatamis (pulot o asukal). Hugasan at Hiwain: Hugasan nang mabuti ang ugat ng luya at hiwain ito ng manipis. Pakuluan ang Tubig: Pakuluan ang 2 tasa ng tubig. Idagdag ang Luya: Idagdag ang hiniwang luya sa kumukulong tubig. Pakuluin: Bawasan ang init at hayaang kumulo ng 10-15 minuto. Salain: Salain ang pinagpakuluan upang alisin ang mga hiwa ng luya. Opsyonal na Pampatamis: Magdagdag ng pulot o asukal kung nais. Inumin: Uminom ng kalahating tasa ng tsaa ng luya tatlong beses sa isang araw.</t>
@@ -851,13 +848,14 @@
     </r>
   </si>
   <si>
-    <t>Ginkgo Biloba</t>
+    <t>Ginkgo biloba</t>
   </si>
   <si>
     <t>Ginkgo biloba is a tree native to China that has been used in traditional Chinese medicine for centuries. The leaves of the ginkgo tree contain compounds that may have health benefits. Ginkgo biloba is often used to improve memory and cognitive function. It may also help to increase blood flow to the brain and improve circulation. Additionally, ginkgo biloba has been studied for its potential to reduce anxiety and depression.</t>
   </si>
   <si>
-    <t xml:space="preserve">How to prepare Ginkgo Biloba for vertigo?
+    <t>Ginkgo biloba
+How to prepare Ginkgo Biloba for vertigo?
 Steps to use Ginkgo Biloba for vertigo
 How to use Ginkgo Biloba for vertigo?
 Best practices for using Ginkgo Biloba in home remedies
@@ -866,8 +864,7 @@
 Steps to use Ginkgo Biloba for head injury
 How to use Ginkgo Biloba for head injury?
 Best practices for using Ginkgo Biloba in home remedies for head injury
-How to make Ginkgo Biloba for head injury?
-</t>
+How to make Ginkgo Biloba for head injury?</t>
   </si>
   <si>
     <t>Take a handful of dried Ginkgo Biloba leaves. Boil 2 cups of water. Add the leaves to the boiling water. Let it simmer for 10-15 minutes. Strain the leaves and pour the tea into a cup. Drink 1-2 cups daily.</t>
@@ -884,7 +881,8 @@
     <t>Ang ginkgo biloba ay isang puno na katutubo sa Tsina at ginagamit sa tradisyunal na medisina ng Tsino sa loob ng maraming siglo. Ang mga dahon ng punong ginkgo ay naglalaman ng mga sangkap na maaaring maghatid ng mga benepisyo sa kalusugan. Kadalasang ginagamit ang ginkgo biloba upang mapabuti ang memorya at cognitive function. Maaari rin itong makatulong sa pagpapataas ng daloy ng dugo sa utak at pagpapabuti ng sirkulasyon. Bukod pa rito, pinag-aaralan din ang ginkgo biloba para sa potensyal nitong mabawasan ang anxiety at depresyon.</t>
   </si>
   <si>
-    <t>Paano maghanda ng Ginkgo Biloba para sa vertigo?
+    <t>Ginkgo biloba
+Paano maghanda ng Ginkgo Biloba para sa vertigo?
 Mga hakbang sa paggamit ng Ginkgo Biloba para sa vertigo
 Paano gamitin ang Ginkgo Biloba para sa vertigo?
 Mga tamang pamamaraan ng paggamit ng Ginkgo Biloba sa mga remedyo sa bahay
@@ -907,13 +905,14 @@
 https://www.healthline.com/nutrition/ginkgo-biloba-benefits</t>
   </si>
   <si>
-    <t>Guava Leaves</t>
-  </si>
-  <si>
-    <t>Guava leaves are a popular herbal remedy in many parts of the world. They are packed with antioxidants and bioactive compounds that may have various health benefits. Guava leaves are often used to treat digestive issues, such as diarrhea and constipation. They may also help to regulate blood sugar levels and boost immunity. Additionally, some studies suggest that guava leaves may have anti-inflammatory and antimicrobial properties. Guava leaves can be consumed in various forms, such as tea, capsules, or topical applications. However, it is important to consult with a healthcare professional before using guava leaves or any herbal remedy, especially if you have underlying health conditions or are taking medications.</t>
-  </si>
-  <si>
-    <t>How to prepare Guava Leaves for food poisoning?
+    <t>Guava leaves</t>
+  </si>
+  <si>
+    <t>Guava leaves are a popular herbal remedy in many parts of the world. They are packed with antioxidants and bioactive compounds that may have various health benefits. Guava leaves are often used to treat digestive issues, such as diarrhea and constipation. They may also help to regulate blood sugar levels and boost immunity. Additionally, some studies suggest that guava leaves may have anti-inflammatory and antimicrobial properties. However, it is important to consult with a healthcare professional before using guava leaves or any herbal remedy, especially if you have underlying health conditions or are taking medications.</t>
+  </si>
+  <si>
+    <t>Guava leaves
+How to prepare Guava Leaves for food poisoning?
 Steps to use Guava Leaves for food poisoning
 How to use Guava Leaves for food poisoning?
 Best practices for using Guava Leaves in home remedies
@@ -945,13 +944,14 @@
     </r>
   </si>
   <si>
-    <t>Dahon ng Bayabas</t>
-  </si>
-  <si>
-    <t>Ang mga dahon ng bayabas ay isang tanyag na halamang-gamot sa maraming bahagi ng mundo. Sila ay puno ng antioxidants at bioactive na mga sangkap na maaaring magbigay ng iba't ibang benepisyo sa kalusugan. Madalas na ginagamit ang mga dahon ng bayabas upang gamutin ang mga problema sa pagtunaw, tulad ng pagtatae at constipation. Maaari rin itong makatulong sa pag-regulate ng antas ng asukal sa dugo at pagpapalakas ng immune system. Bukod dito, may ilang pag-aaral na nagpapahiwatig na ang mga dahon ng bayabas ay maaaring may anti-inflammatory at antimicrobial na katangian. Maaaring gamitin ang mga dahon ng bayabas sa iba't ibang anyo, tulad ng tsaa, kapsula, o pangkasalukuyang aplikasyon. Gayunpaman, mahalagang kumonsulta muna sa isang propesyonal sa kalusugan bago gumamit ng mga dahon ng bayabas o anumang halamang-gamot, lalo na kung mayroon kang mga kundisyong medikal o umiinom ng gamot.</t>
-  </si>
-  <si>
-    <t>Paano ihanda ang dahon ng bayabas?
+    <t>Dahon ng bayabas</t>
+  </si>
+  <si>
+    <t>Ang mga dahon ng bayabas ay isang tanyag na halamang-gamot sa maraming bahagi ng mundo. Sila ay puno ng antioxidants at bioactive na mga sangkap na maaaring magbigay ng iba't ibang benepisyo sa kalusugan. Madalas na ginagamit ang mga dahon ng bayabas upang gamutin ang mga problema sa pagtunaw, tulad ng pagtatae at constipation. Maaari rin itong makatulong sa pag-regulate ng antas ng asukal sa dugo at pagpapalakas ng immune system. Bukod dito, may ilang pag-aaral na nagpapahiwatig na ang mga dahon ng bayabas ay maaaring may anti-inflammatory at antimicrobial na katangian. Gayunpaman, mahalagang kumonsulta muna sa isang propesyonal sa kalusugan bago gumamit ng mga dahon ng bayabas o anumang halamang-gamot, lalo na kung mayroon kang mga kundisyong medikal o umiinom ng gamot.</t>
+  </si>
+  <si>
+    <t>Dahon ng bayabas
+Paano ihanda ang dahon ng bayabas?
 Mga hakbang sa paghahanda ng dahon ng bayabas para sa sugat
 Paano gamitin ang dahon ng bayabas para sa paggaling?
 Paano pakuluan ang dahon ng bayabas?
@@ -993,17 +993,18 @@
     </r>
   </si>
   <si>
-    <t>Custard Apple</t>
+    <t>Custard apple</t>
   </si>
   <si>
     <t>Atis, also known as custard apple, is a tropical fruit native to the Americas. It has a unique appearance with a green, bumpy exterior and a creamy, custard-like interior. Atis is rich in nutrients, including vitamins A, C, and B vitamins, as well as minerals like potassium and iron. It is also a good source of fiber. Atis has been traditionally used in folk medicine to treat various ailments, including diarrhea, fever, and skin conditions. Some studies suggest that atis may have antioxidant and anti-inflammatory properties.</t>
   </si>
   <si>
-    <t>How to prepare Atis for fainting
-Steps to use Atis for fainting
-How to use Atis for fainting?
-Best practices for using Atis in home remedies
-How to make Atis for fainting?</t>
+    <t>Custard apple
+How to prepare custard apple for fainting
+Steps to use custard apple for fainting
+How to use custard apple for fainting?
+Best practices for using custard apple in home remedies
+How to make custard apple for fainting?</t>
   </si>
   <si>
     <t>Crush a few fresh atis leaves to release their juice. Apply the crushed leaves directly to the nose area. Inhale the scent of the leaves to help revive someone who has fainted.</t>
@@ -1022,7 +1023,8 @@
     <t>Ang atis, na kilala rin bilang custard apple, ay isang tropikal na prutas na katutubo sa Amerika. Mayroon itong kakaibang hitsura na may berdeng, butlig-butlig na balat at malambot, parang custard na laman sa loob. Ang atis ay mayaman sa mga sustansya, kabilang ang mga bitamina A, C, at mga bitamina B, pati na rin ang mga mineral tulad ng potassium at iron. Ito rin ay isang mahusay na pinagmumulan ng fiber. Sa tradisyunal na medisina, ginagamit ang atis upang gamutin ang iba't ibang karamdaman, tulad ng pagtatae, lagnat, at mga kondisyon sa balat. May ilang pag-aaral na nagpapahiwatig na ang atis ay maaaring may antioxidant at anti-inflammatory na katangian.</t>
   </si>
   <si>
-    <t>Paano maghanda ng Atis para sa pagkahimatay
+    <t>Atis
+Paano maghanda ng Atis para sa pagkahimatay
 Mga hakbang sa paggamit ng Atis para sa pagkahimatay
 Paano gamitin ang Atis para sa pagkahimatay?
 Mga tamang pamamaraan ng paggamit ng Atis sa mga remedyo sa bahay
@@ -1049,13 +1051,14 @@
     </r>
   </si>
   <si>
-    <t>Yerba Buena</t>
+    <t>Yerba buena</t>
   </si>
   <si>
     <t>Yerba buena, also known as peppermint, is a popular herb used in cooking and traditional medicine. It has a refreshing, minty flavor and aroma. Yerba buena is rich in antioxidants and bioactive compounds that may have health benefits. Some of these compounds include menthol, which is responsible for the herb's cooling sensation. Yerba buena may help to relieve digestive issues, such as bloating and gas. It may also help to reduce stress and anxiety.</t>
   </si>
   <si>
-    <t>How to prepare Yerba Buena for headache
+    <t>Yerba buena
+How to prepare Yerba Buena for headache
 Steps to use Yerba Buena for headache
 How to use Yerba Buena for headache?
 Best practices for using Yerba Buena in home remedies
@@ -1077,7 +1080,8 @@
     <t>Ang yerba buena, na kilala rin bilang peppermint, ay isang tanyag na halamang-gamot na ginagamit sa pagluluto at tradisyunal na medisina. Ito ay may nakakapreskong, minty na lasa at aroma. Ang yerba buena ay mayaman sa antioxidants at bioactive na mga sangkap na maaaring magbigay ng benepisyo sa kalusugan. Isa sa mga sangkap na ito ay ang menthol, na nagbibigay ng malamig na pakiramdam. Maaaring makatulong ang yerba buena sa pagpapagaan ng mga problema sa pagtunaw, tulad ng kabag at hangin sa tiyan. Maaari rin itong makatulong na mabawasan ang stress at anxiety.</t>
   </si>
   <si>
-    <t>Paano maghanda ng Yerba Buena para sa sakit ng ulo
+    <t>Yerba buena
+Paano maghanda ng Yerba Buena para sa sakit ng ulo
 Mga hakbang sa paggamit ng Yerba Buena para sa sakit ng ulo
 Paano gamitin ang Yerba Buena para sa sakit ng ulo?
 Mga tamang pamamaraan ng paggamit ng Yerba Buena sa mga remedyo sa bahay
@@ -1106,18 +1110,18 @@
     </r>
   </si>
   <si>
-    <t>Calamansi with Honey</t>
-  </si>
-  <si>
-    <t>Calamansi is a small, citrus fruit native to the Philippines. It is often referred to as the `Philippine lime` due to its tart, tangy flavor. When combined with honey, it creates a refreshing and potentially beneficial drink.Calamansi is rich in vitamin C, which is essential for boosting immunity and promoting overall health. It also contains antioxidants that can help protect cells from damage. Honey, on the other hand, is known for its antibacterial and anti-inflammatory properties. When combined, calamansi and honey can be a natural remedy for various ailments, including colds, coughs, and sore throats.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How to prepare Calamansi with Honey for cold
+    <t>Calamansi with honey</t>
+  </si>
+  <si>
+    <t>Calamansi is a small, citrus fruit native to the Philippines. It is often referred to as the `Philippine lime` due to its tart, tangy flavor. When combined with honey, it creates a refreshing and potentially beneficial drink.Calamansi is rich in vitamin C, which is essential for boosting immunity and promoting overall health. It also contains antioxidants that can help protect cells from damage. can be a natural remedy for various ailments, including colds, coughs, and sore throats.</t>
+  </si>
+  <si>
+    <t>Calamansi with honey
+How to prepare Calamansi with Honey for cold
 Steps to use Calamansi with Honey for cold
 How to use Calamansi with Honey for cold?
 Best practices for using Calamansi with Honey in home remedies
-How to make Calamansi with Honey for cold?
-</t>
+How to make Calamansi with Honey for cold?</t>
   </si>
   <si>
     <t>Wash the calamansi fruits thoroughly. Cut each calamansi in half and squeeze out the juice into a container. Remove any seeds from the juice. In a mug, mix the calamansi juice with 1 cup of warm water. Add 2 tablespoons of honey and stir well until the honey is fully dissolved. Drink this mixture 2-3 times a day to help alleviate cold symptoms.</t>
@@ -1132,10 +1136,11 @@
 https://nawon.com.vn/calamansi-juice-8-benefits-of-this-tasty-citrus-fruit/</t>
   </si>
   <si>
-    <t>Ang kalamansi ay isang maliit na prutas na sitrus na katutubo sa Pilipinas. Madalas itong tinatawag na `Philippine lime` dahil sa maasim at matapang nitong lasa. Kapag hinaluan ng pulot, nagiging isang nakakapreskong at posibleng kapaki-pakinabang na inumin ito. Ang kalamansi ay mayaman sa vitamin C, na mahalaga para sa pagpapalakas ng immune system at pagpapabuti ng pangkalahatang kalusugan. Naglalaman din ito ng antioxidants na tumutulong na protektahan ang mga selula mula sa pinsala. Samantala, kilala ang pulot sa mga antibacterial at anti-inflammatory na katangian. Kapag pinagsama, ang kalamansi at pulot ay maaaring maging natural na lunas para sa iba't ibang karamdaman, tulad ng sipon, ubo, at sore throat.</t>
-  </si>
-  <si>
-    <t>Paano maghanda ng Calamansi with Honey para sa sipon
+    <t>Ang kalamansi ay isang maliit na prutas na sitrus na katutubo sa Pilipinas. Madalas itong tinatawag na `Philippine lime` dahil sa maasim at matapang nitong lasa. Kapag hinaluan ng pulot, nagiging isang nakakapreskong at posibleng kapaki-pakinabang na inumin ito. Ang kalamansi ay mayaman sa vitamin C, na mahalaga para sa pagpapalakas ng immune system at pagpapabuti ng pangkalahatang kalusugan. Naglalaman din ito ng antioxidants na tumutulong na protektahan ang mga selula mula sa pinsala.  maaaring maging natural na lunas para sa iba't ibang karamdaman, tulad ng sipon, ubo, at sore throat.</t>
+  </si>
+  <si>
+    <t>Calamansi with honey
+Paano maghanda ng Calamansi with Honey para sa sipon
 Mga hakbang sa paggamit ng Calamansi with Honey para sa sipon
 Paano gamitin ang Calamansi with Honey para sa sipon?
 Mga tamang pamamaraan ng paggamit ng Calamansi with Honey sa mga remedyo sa bahay
@@ -1154,17 +1159,17 @@
 https://nawon.com.vn/calamansi-juice-8-benefits-of-this-tasty-citrus-fruit/</t>
   </si>
   <si>
-    <t>Gauze Bandage</t>
+    <t>Gauze bandage</t>
   </si>
   <si>
     <t>Gauze bandages are a common first aid supply used to cover and protect wounds. They are typically made from a thin, woven fabric that is highly absorbent. Gauze bandages are often used in conjunction with other wound care products, such as adhesive bandages or medical tape, to secure dressings in place.</t>
   </si>
   <si>
-    <t xml:space="preserve">How to properly apply a gauze bandage?
+    <t>Gauze bandage
+How to properly apply a gauze bandage?
 Steps to prepare and use a gauze bandage
 What are the best practices for using a gauze bandage?
-How to sterilize a gauze bandage before use?
-</t>
+How to sterilize a gauze bandage before use?</t>
   </si>
   <si>
     <t>Wash hands or use sanitizer. Clean the wound with sterile water. Place sterile gauze pad on the wound. Wrap with gauze roll (if needed), snug but not tight  Secure with tape or bandage clips. Check circulation and adjust if too tight. Replace if dirty or wet.</t>
@@ -1178,10 +1183,14 @@
 https://www.woundsource.com/blog/gauze-dressings-and-wounds-9-dos-and-don-ts</t>
   </si>
   <si>
-    <t>Ang mga gauze bandage ay isang karaniwang gamit sa pangunang lunas na ginagamit upang takpan at protektahan ang mga sugat. Karaniwan itong gawa sa manipis at hinabing tela na lubos na sumisipsip ng likido. Madalas na ginagamit ang mga gauze bandage kasama ng iba pang mga produktong pang-alaga sa sugat, tulad ng adhesive bandages o medical tape, upang siguraduhin na maayos ang pagkakalagay ng mga dressing sa sugat.</t>
-  </si>
-  <si>
-    <t>Paano maayos na maglagay ng gauze bandage?
+    <t>Bandang gasa</t>
+  </si>
+  <si>
+    <t>Ang mga bandang gasa ay isang karaniwang gamit sa pangunang lunas na ginagamit upang takpan at protektahan ang mga sugat. Karaniwan itong gawa sa manipis at hinabing tela na lubos na sumisipsip ng likido. Madalas na ginagamit ang mga gauze bandage kasama ng iba pang mga produktong pang-alaga sa sugat, tulad ng adhesive bandages o medical tape, upang siguraduhin na maayos ang pagkakalagay ng mga dressing sa sugat.</t>
+  </si>
+  <si>
+    <t>Bandang gasa
+Paano maayos na maglagay ng gauze bandage?
 Mga hakbang sa paghahanda at paggamit ng gauze bandage
 Ano ang mga tamang pamamaraan ng paggamit ng gauze bandage?
 Paano i-sterilize ang gauze bandage bago gamitin?</t>
@@ -1198,19 +1207,19 @@
 https://www.woundsource.com/blog/gauze-dressings-and-wounds-9-dos-and-don-ts</t>
   </si>
   <si>
-    <t>Aloe Vera</t>
+    <t>Aloe vera</t>
   </si>
   <si>
     <t>Aloe vera is a succulent plant with thick, fleshy leaves that contain a gel-like substance inside. This gel has been used for centuries as a natural remedy for various health conditions. Aloe vera gel is rich in vitamins, minerals, and antioxidants. It also contains bioactive compounds that may have anti-inflammatory, antimicrobial, and wound-healing properties. Aloe vera is often used topically to treat skin conditions, such as burns, cuts, and acne. It may also help to soothe sunburn and reduce itching. Additionally, some studies suggest that aloe vera may have internal health benefits, including improving digestion and boosting immunity.</t>
   </si>
   <si>
-    <t xml:space="preserve">How to prepare Aloe Vera?
+    <t>Aloe vera
+How to prepare Aloe Vera?
 Steps to prepare Aloe Vera for burns
 How to use Aloe Vera for healing?
 How to extract Aloe Vera gel?
 Best practices for Aloe Vera application
-How to store Aloe Vera gel?
-</t>
+How to store Aloe Vera?</t>
   </si>
   <si>
     <t>Clean the Area: Gently rinse the affected area with cool water to remove any dirt or debris. Cut a Fresh Aloe Vera Leaf: Use a clean knife to cut an Aloe Vera leaf near the base. Extract the Gel: Slice the leaf open lengthwise and carefully scoop out the gel inside. Apply the Gel: Gently apply a thin layer of the Aloe Vera gel to the affected area. Let It Absorb: Allow the gel to fully absorb into the skin. Reapply as needed. Store Extra Gel: Place any leftover gel in an airtight container and refrigerate for future use.</t>
@@ -1232,12 +1241,13 @@
     <t>Ang aloe vera ay isang succulent na halaman na may makapal at makatas na mga dahon na naglalaman ng parang gel na sangkap sa loob. Ang gel na ito ay ginagamit sa loob ng maraming siglo bilang natural na lunas para sa iba't ibang kondisyon sa kalusugan. Ang aloe vera gel ay mayaman sa mga bitamina, mineral, at antioxidants. Naglalaman din ito ng mga bioactive na sangkap na maaaring may anti-inflammatory, antimicrobial, at wound-healing na katangian. Madalas na ginagamit ang aloe vera bilang pangkasalukuyang lunas sa mga kondisyon sa balat, tulad ng paso, hiwa, at acne. Maaari rin itong makatulong sa pagpapakalma ng sunburn at pagbabawas ng pangangati. Bukod dito, may ilang pag-aaral na nagpapahiwatig na maaaring may benepisyo rin ang aloe vera sa loob ng katawan, kabilang ang pagpapabuti ng digestion at pagpapalakas ng immune system.</t>
   </si>
   <si>
-    <t>Paano ihanda ang Aloe Vera?
+    <t>Aloe vera
+Paano ihanda ang Aloe Vera?
 Mga hakbang sa paghahanda ng Aloe Vera para sa paso
 Paano gamitin ang Aloe Vera para sa paggaling?
-Paano kunin ang gel ng Aloe Vera?
+Paano kunin ang  Aloe Vera?
 Mga tamang pamamaraan ng paglalagay ng Aloe Vera
-Paano itago ang gel ng Aloe Vera?</t>
+Paano itago ang  Aloe Vera?</t>
   </si>
   <si>
     <t>Linisin ang Bahagi: Dahan-dahang banlawan ang apektadong bahagi gamit ang malamig na tubig upang alisin ang anumang dumi o debris. Gupitin ang Sariwang Dahon ng Aloe Vera: Gumamit ng malinis na kutsilyo upang putulin ang dahon ng Aloe Vera malapit sa puno nito. Kunin ang Gel: Hiwain nang pahaba ang dahon at maingat na kunin ang gel sa loob. I-apply ang Gel: Dahan-dahang ipahid ang manipis na layer ng Aloe Vera gel sa apektadong bahagi. Pahintulutang Ma-absorb: Hayaan ang gel na tuluyang ma-absorb ng balat. Ulitin ang paglalagay kung kinakailangan. Itabi ang Natirang Gel: Ilagay ang natirang gel sa isang lalagyang may takip at ilagay sa refrigerator para magamit sa hinaharap.</t>
@@ -1266,13 +1276,14 @@
     </r>
   </si>
   <si>
-    <t>Banana Leaves</t>
-  </si>
-  <si>
-    <t>Dahon ng saging (banana leaf) is a versatile material commonly used in Filipino cuisine and traditional medicine. It is the large, green leaf of a banana tree. Dahon ng saging is often used as a natural wrapping material for various Filipino dishes, such as suman, tamales, and lechon. It imparts a unique flavor and aroma to the food, while also helping to retain moisture and prevent it from sticking. Beyond its culinary uses, dahon ng saging has been used for centuries as a traditional remedy for various ailments. It is believed to have anti-inflammatory, antimicrobial, and wound-healing properties. The leaves can be applied topically to soothe skin irritations, burns, and insect bites. Additionally, dahon ng saging may help to reduce fever and relieve pain.</t>
-  </si>
-  <si>
-    <t>How to prepare banana leaves?
+    <t>Banana leaves</t>
+  </si>
+  <si>
+    <t>Banana leaves is a versatile material commonly used in Filipino cuisine and traditional medicine. It is the large, green leaf of a banana tree. Banana leaves is often used as a natural wrapping material for various Filipino dishes, such as suman, tamales, and lechon. It imparts a unique flavor and aroma to the food, while also helping to retain moisture and prevent it from sticking. Beyond its culinary uses, dahon ng saging has been used for centuries as a traditional remedy for various ailments. It is believed to have anti-inflammatory, antimicrobial, and wound-healing properties. The leaves can be applied topically to soothe skin irritations, burns, and insect bites. Additionally, dahon ng saging may help to reduce fever and relieve pain.</t>
+  </si>
+  <si>
+    <t>Banana leaves
+How to prepare banana leaves?
 Steps to prepare banana leaves for wounds
 How to use banana leaves for healing?
 How to soften banana leaves?
@@ -1292,13 +1303,14 @@
 </t>
   </si>
   <si>
-    <t>Dahon ng Saging</t>
+    <t>Dahon ng saging</t>
   </si>
   <si>
     <t>Ang dahon ng saging ay isang maraming gamit na materyal na karaniwang ginagamit sa lutuing Pilipino at tradisyunal na medisina. Ito ay ang malalaking berdeng dahon ng puno ng saging. Madalas itong ginagamit bilang natural na pambalot sa iba't ibang pagkaing Pilipino, tulad ng suman, tamales, at lechon. Nagbibigay ito ng natatanging lasa at aroma sa pagkain, habang tumutulong din sa pagpapanatili ng halumigmig at pag-iwas sa pagkakadikit. Bukod sa gamit nito sa pagluluto, matagal nang ginagamit ang dahon ng saging bilang tradisyunal na lunas sa iba't ibang karamdaman. Pinaniniwalaang mayroon itong mga anti-inflammatory, antimicrobial, at wound-healing na katangian. Maaari itong ilagay nang direkta sa balat upang pakalmahin ang mga iritasyon, paso, at kagat ng insekto. Bukod pa rito, ang dahon ng saging ay maaaring makatulong sa pagpapababa ng lagnat at pag-alis ng sakit.</t>
   </si>
   <si>
-    <t>Paano ihanda ang dahon ng saging?
+    <t>Dahon ng saging
+Paano ihanda ang dahon ng saging?
 Mga hakbang sa paghahanda ng dahon ng saging para sa sugat
 Paano gamitin ang dahon ng saging para sa paggaling?
 Paano palambutin ang dahon ng saging?
@@ -1318,13 +1330,14 @@
 </t>
   </si>
   <si>
-    <t>Mayana Leaves</t>
+    <t>Mayana leaves</t>
   </si>
   <si>
     <t>Mayana leaves (Coleus blumei) are a popular medicinal herb in the Philippines. They are known for their potential healing properties and are used in traditional medicine to treat a variety of ailments. Mayana leaves contain compounds that may have anti-inflammatory, antimicrobial, and pain-relieving properties. They have been traditionally used to treat wounds, sprains, bruises, and swelling. The leaves can be crushed and applied directly to the affected area to reduce pain and inflammation. Additionally, mayana leaves may have other potential health benefits, such as improving digestion and boosting immunity.</t>
   </si>
   <si>
-    <t>How to prepare Mayana leaves?
+    <t>Mayana leaves
+How to prepare Mayana leaves?
 Steps to prepare Mayana leaves for wounds
 How to use Mayana leaves for healing?
 How to crush Mayana leaves?
@@ -1345,13 +1358,14 @@
 http://www.ijfe.org/uploadfile/2017/0816/20170816112607904.pdf</t>
   </si>
   <si>
-    <t>Dahon ng Mayana</t>
+    <t>Dahon ng mayana</t>
   </si>
   <si>
     <t>Ang mga dahon ng mayana (Coleus blumei) ay isang tanyag na halamang-gamot sa Pilipinas. Kilala ang mga ito sa kanilang posibleng mga katangiang nakakagamot at ginagamit sa tradisyunal na medisina upang gamutin ang iba't ibang karamdaman. Ang mga dahon ng mayana ay naglalaman ng mga sangkap na maaaring may anti-inflammatory, antimicrobial, at pain-relieving na mga katangian. Tradisyunal na ginagamit ang mga ito upang gamutin ang mga sugat, pilay, pasa, at pamamaga. Ang mga dahon ay maaaring durugin at direktang ilapat sa apektadong bahagi ng katawan upang mabawasan ang sakit at pamamaga. Bukod pa rito, ang mga dahon ng mayana ay maaaring magbigay ng iba pang benepisyo sa kalusugan, tulad ng pagpapabuti ng digestion at pagpapalakas ng immune system.</t>
   </si>
   <si>
-    <t>Paano ihanda ang dahon ng Mayana?
+    <t>Dahon ng mayana
+Paano ihanda ang dahon ng Mayana?
 Mga hakbang sa paghahanda ng dahon ng Mayana para sa sugat
 Paano gamitin ang dahon ng Mayana para sa paggaling?
 Paano durugin ang dahon ng Mayana?
@@ -1383,12 +1397,12 @@
     <t>Honey is a sweet, viscous substance produced by bees from nectar collected from flowers. It is a natural sweetener that has been used for centuries for both its culinary and medicinal properties. Honey is rich in antioxidants and bioactive compounds that may have health benefits. It has been shown to have antibacterial and antifungal properties, which can help to fight infections. Additionally, honey may help to soothe sore throats, coughs, and digestive issues. Some studies suggest that honey may also have anti-inflammatory properties and can help to improve sleep quality.</t>
   </si>
   <si>
-    <t xml:space="preserve">How to prepare honey for wounds?
+    <t>Honey
+How to prepare honey for wounds?
 Steps to use honey for wound healing
 How to apply honey on wounds?
 Best practices for using honey on cuts
-How to choose raw honey for healing?
-</t>
+How to choose raw honey for healing?</t>
   </si>
   <si>
     <t>Choose Raw Honey: Use raw, unprocessed honey for its natural medicinal properties. Clean the Wound: Gently rinse the affected area with clean water. Apply Honey: Spread a thin layer of honey directly on the wound or affected area. Cover the area: Place a sterile bandage or gauze over the honey-coated area to keep it in place. Change Regularly: Replace the honey and bandage as needed, especially if the bandage becomes wet or dirty. Monitor for Reactions: Observe the wound for any signs of allergic reactions or irritation.</t>
@@ -1410,12 +1424,12 @@
     <t>Ang pulot ay isang matamis at malapot na substansya na ginagawa ng mga bubuyog mula sa nektar na kinokolekta mula sa mga bulaklak. Ito ay isang natural na pampatamis na ginagamit sa loob ng maraming siglo para sa parehong mga katangian nito sa pagluluto at medisina. Ang pulot ay mayaman sa antioxidants at mga bioactive na sangkap na maaaring magbigay ng benepisyo sa kalusugan. Ipinakita na mayroon itong antibacterial at antifungal na mga katangian, na makakatulong sa paglaban sa mga impeksyon. Bukod dito, maaaring makatulong ang pulot sa pagpapakalma ng sore throat, ubo, at mga problema sa pagtunaw. May ilang pag-aaral na nagpapahiwatig na ang pulot ay maaaring mayroon ding anti-inflammatory na mga katangian at makakatulong sa pagpapabuti ng kalidad ng pagtulog.</t>
   </si>
   <si>
-    <t xml:space="preserve">Paano ihanda ang honey para sa sugat?
+    <t>Honey
+Paano ihanda ang honey para sa sugat?
 Mga hakbang sa paggamit ng honey para sa pagpapagaling ng sugat
 Paano maglagay ng honey sa sugat?
 Mga tamang pamamaraan ng paggamit ng honey sa sugat
-Paano pumili ng raw honey para sa paggaling?
-</t>
+Paano pumili ng raw honey para sa paggaling?</t>
   </si>
   <si>
     <t>Pumili ng Raw Honey: Gumamit ng raw, hindi naprosesong honey para sa natural na medicinal properties nito. Linisin ang Sugat: Banayad na banlawan ang apiktadong lugar gamit ang malinis na tubig. Ilagay ang Honey: Maglagay ng manipis na layer ng honey direkta sa sugat o apektadong bahagi. Takpan ang apiktadong lugar: Ilagay ang sterile na bendahe o gauze sa ibabaw ng honey-coated na bahagi upang manatili ito sa lugar. Palitan Regularly: Palitan ang honey at bendahe kung kinakailangan, lalo na kung nagiging basa o marumi ang bendahe. Suriin ang Reaksyon: Obserbahan ang sugat para sa anumang palatandaan ng allergic reactions o iritasyon.</t>
@@ -1429,17 +1443,18 @@
 https://ahpanet.com/</t>
   </si>
   <si>
-    <t>Garlic (Sprains)</t>
+    <t>Garlic (sprain)</t>
   </si>
   <si>
     <t>Garlic is a pungent, bulbous plant that is widely used in cooking and traditional medicine. It has a strong, distinct flavor and aroma. Garlic is rich in antioxidants and bioactive compounds that may have health benefits. Some of these compounds include allicin, which is thought to be responsible for many of garlic's medicinal properties. Garlic has been shown to have antimicrobial, antifungal, and anti-inflammatory properties. It may also help to lower blood pressure, reduce cholesterol levels, and boost immunity.</t>
   </si>
   <si>
-    <t>How to prepare garlic for treating sprains?
+    <t>Garlic (sprain)
+How to prepare garlic for treating sprains?
 Steps to use garlic for sprain relief
 How to apply garlic for sprain recovery?
 Best practices for using garlic in sprain treatment
-How to infuse garlic oil for sprain relief?</t>
+How to infuse garlic for sprain relief?</t>
   </si>
   <si>
     <t>Select Fresh Garlic: Choose firm, plump garlic bulbs. Avoid those with soft spots or mold. Peel the Cloves: Gently remove the outer skin of the garlic bulb. Separate the individual cloves and peel off their papery skin. Crush or Mince: Crushing: Use a garlic press or the flat side of a chef's knife to crush the cloves. Mincing: Chop the cloves finely with a knife. Create a Paste: Mix crushed or minced garlic with a bit of honey or olive oil to create a paste. Apply to the Sprained Area: Apply the garlic paste directly to the sprained area. You can cover it with a bandage or cloth to keep it in place.</t>
@@ -1453,17 +1468,18 @@
 https://health.clevelandclinic.org/6-surprising-ways-garlic-boosts-your-health</t>
   </si>
   <si>
-    <t>bawang (Sprains)</t>
+    <t>Bawang (sprain)</t>
   </si>
   <si>
     <t>Ang bawang ay isang matapang, bulbous na halaman na malawakang ginagamit sa pagluluto at tradisyunal na gamot. Mayroon itong malakas, natatanging lasa at amoy. Ang bawang ay mayaman sa mga antioxidant at bioactive compound na maaaring magkaroon ng mga benepisyo sa kalusugan. Ang ilan sa mga compound na ito ay kasama ang allicin, na naisip na responsable para sa marami sa mga nakapagpapagaling na katangian ng bawang. Ang bawang ay napatunayang mayroong antimicrobial, antifungal, at anti-inflammatory properties. Maaari din itong makatulong na ibaba ang presyon ng dugo, bawasan ang mga antas ng kolesterol, at palakasin ang kaligtasan sa sakit.</t>
   </si>
   <si>
-    <t>Paano maghanda ng bawang para sa pag-gamot ng sprain?
+    <t>Bawang (sprain)
+Paano maghanda ng bawang para sa pag-gamot ng sprain?
 Mga hakbang sa paggamit ng bawang para sa ginhawa sa sprain
 Paano maglagay ng bawang para sa pag-rekober mula sa sprain?
 Mga tamang pamamaraan ng paggamit ng bawang sa paggamot ng sprain
-Paano gumawa ng infused garlic oil para sa ginhawa sa sprain?</t>
+Paano gumawa ng infused garlic para sa ginhawa sa sprain?</t>
   </si>
   <si>
     <t>Pumili ng Sariwang Bawang: Pumili ng matigas at buo na mga ulo ng bawang. Iwasan ang mga may malalambot na parte o amag. Balatan ang Mga Butil: Dahan-dahang alisin ang panlabas na balat ng ulo ng bawang. Paghiwa-hiwalayin ang mga butil at balatan ang kanilang manipis na balat. Durugin o Tadtarin: Durugin: Gumamit ng garlic press o patag na bahagi ng kutsilyong pangkusina upang durugin ang mga butil. Tadtarin: Hiwain nang pino ang mga butil gamit ang kutsilyo. Gumawa ng Paste: Paghaluin ang dinurog o tinadtad na bawang sa kaunting honey o olive oil upang makagawa ng paste. I-apply sa Bahaging Napilayan: Ipahid ang bawang paste nang direkta sa bahaging napilayan. Maaari itong takpan ng benda o tela upang manatili ito sa lugar.</t>
@@ -1480,7 +1496,8 @@
     <t>Onion is a bulbous plant that is widely used in cooking and traditional medicine. It has a strong, pungent flavor and aroma. Onions are rich in antioxidants and bioactive compounds that may have health benefits. Some of these compounds include flavonoids, which are thought to be responsible for many of onions' medicinal properties. Onions have been shown to have antimicrobial, antifungal, and anti-inflammatory properties. They may also help to lower blood pressure, reduce cholesterol levels, and boost immunity.</t>
   </si>
   <si>
-    <t>How to prepare onions for wounds?
+    <t>Onion
+How to prepare onions for wounds?
 Steps to use onions for minor cuts and scrapes
 How to apply onions for insect bites?
 Best practices for using onions in home remedies
@@ -1502,7 +1519,8 @@
     <t>Ang sibuyas ay isang bulbous na halaman na malawakang ginagamit sa pagluluto at tradisyunal na gamot. Mayroon itong malakas, matapang na lasa at amoy. Ang mga sibuyas ay mayaman sa mga antioxidant at bioactive compound na maaaring magkaroon ng mga benepisyo sa kalusugan. Ang ilan sa mga compound na ito ay kasama ang mga flavonoid, na naisip na responsable para sa marami sa mga nakapagpapagaling na katangian ng sibuyas. Ang mga sibuyas ay napatunayang mayroong antimicrobial, antifungal, at anti-inflammatory properties. Maaari din itong makatulong na ibaba ang presyon ng dugo, bawasan ang mga antas ng kolesterol, at palakasin ang kaligtasan sa sakit.</t>
   </si>
   <si>
-    <t>Paano maghanda ng sibuyas para sa mga sugat?
+    <t>Sibuyas
+Paano maghanda ng sibuyas para sa mga sugat?
 Mga hakbang sa paggamit ng sibuyas para sa maliit na sugat at gasgas
 Paano maglagay ng sibuyas para sa kagat ng insekto?
 Mga tamang pamamaraan ng paggamit ng sibuyas sa mga remedyo sa bahay
@@ -1524,7 +1542,8 @@
     <t>Cabbage is a leafy green vegetable that is widely used in cooking. It has a firm, white head with green outer leaves. Cabbage is a rich source of vitamins, minerals, and antioxidants. It is a good source of vitamin C, vitamin K, and potassium. Cabbage also contains fiber, which can help promote digestive health. Some studies suggest that cabbage may have anti-inflammatory and anticancer properties.</t>
   </si>
   <si>
-    <t>How to prepare cabbage for sprains?
+    <t>Cabbage
+How to prepare cabbage for sprains?
 Steps to use cabbage for sprains
 How to apply cabbage leaves for sprains?
 Best practices for using cabbage leaves in home remedies for sprains
@@ -1563,7 +1582,8 @@
     <t>Ang repolyo ay isang malabay na berdeng gulay na malawakang ginagamit sa pagluluto. Mayroon itong matigas, puting ulo na may berdeng panlabas na mga dahon. Ang repolyo ay isang mahusay na pinagmumulan ng mga bitamina, mineral, at antioxidant. Ito ay isang magandang pinagmumulan ng bitamina C, bitamina K, at potasyum. Naglalaman din ang repolyo ng fiber, na maaaring makatulong sa pagpapalakas ng kalusugan ng pagtunaw. Iminumungkahi ng ilang pag-aaral na ang repolyo ay maaaring magkaroon ng mga anti-inflammatory at anticancer properties.</t>
   </si>
   <si>
-    <t>Paano ihanda ang cabbage para sa pilay?
+    <t>Repolyo
+Paano ihanda ang cabbage para sa pilay?
 Mga hakbang sa paggamit ng cabbage para sa pilay
 Paano maglagay ng dahon ng cabbage para sa pilay?
 Mga tamang pamamaraan ng paggamit ng dahon ng cabbage sa mga remedyo sa bahay para sa pilay
@@ -1602,7 +1622,8 @@
     <t>Pineapple is a tropical fruit known for its sweet, tangy flavor and distinctive appearance. It has a tough, spiky exterior and a juicy, yellow interior. Pineapples are rich in nutrients, including vitamins A, C, and B vitamins, as well as minerals like manganese and copper. They are also a good source of fiber. Pineapples contain a digestive enzyme called bromelain, which may help to improve digestion and reduce inflammation. Additionally, pineapples have been shown to have antioxidant properties.</t>
   </si>
   <si>
-    <t>How to prepare pineapple for bruises?
+    <t>Pineapple
+How to prepare pineapple for bruises?
 Steps to use pineapple for treating bruises
 How to apply pineapple on bruises for quick relief?
 Best practices for using pineapple on bruises
@@ -1645,7 +1666,8 @@
     <t>Ang pinya ay isang tropikal na prutas na kilala sa matamis, maasim na lasa at natatanging hitsura. Mayroon itong matigas, matubong panlabas at isang makatas, dilaw na loob. Ang mga pinya ay mayaman sa mga sustansya, kabilang ang mga bitamina A, C, at B vitamins, pati na rin ang mga mineral tulad ng manganese at copper. Ang mga ito ay isang mahusay din na pinagmumulan ng fiber. Naglalaman ang mga pinya ng isang digestive enzyme na tinatawag na bromelain, na maaaring makatulong na mapabuti ang panunaw at mabawasan ang pamamaga. Bukod dito, napatunayang mayroong mga antioxidant properties ang mga pinya.</t>
   </si>
   <si>
-    <t>Paano ihanda ang pinya para sa mga pasa?
+    <t>Pinya
+Paano ihanda ang pinya para sa mga pasa?
 Mga hakbang sa paggamit ng pinya para gamutin ang mga pasa
 Paano maglagay ng pinya sa mga pasa para sa mabilis na ginhawa?
 Mga tamang pamamaraan ng paggamit ng pinya sa mga pasa
@@ -1688,7 +1710,8 @@
     <t>Oranges are citrus fruits known for their sweet, tangy flavor and vibrant color. They are a good source of vitamins, minerals, and antioxidants. Oranges are rich in vitamin C, which is essential for boosting immunity and promoting overall health. They also contain vitamin A, potassium, and fiber. Oranges are a good source of antioxidants, which can help protect cells from damage.</t>
   </si>
   <si>
-    <t>How to prepare orange for bruises?
+    <t>Orange
+How to prepare orange for bruises?
 Steps to use orange for treating bruises
 How to apply orange on bruises for quick relief?
 Best practices for using orange on bruises
@@ -1699,7 +1722,7 @@
 How to store orange for first aid use on bruises?
 Can orange speed up the healing process of bruises?
 Why is orange effective for bruises?
-How to apply orange juice for bruises?
+How to apply orange for bruises?
 Can orange reduce discoloration from bruises?</t>
   </si>
   <si>
@@ -1724,7 +1747,8 @@
     <t>Ang mga Orange ay mga citrus fruits na kilala sa matamis, maasim na lasa at buhay na kulay. Ang mga ito ay isang mahusay na pinagmumulan ng mga bitamina, mineral, at antioxidant. Ang mga Orange ay mayaman sa bitamina C, na mahalaga para sa pagpapalakas ng kaligtasan sa sakit at pagtataguyod ng pangkalahatang kalusugan. Naglalaman din ang mga ito ng bitamina A, potasyum, at fiber. Ang mga Orange ay isang mahusay na pinagmumulan ng mga antioxidant, na maaaring makatulong na protektahan ang mga selula mula sa pinsala.</t>
   </si>
   <si>
-    <t>Paano ihanda ang orange para sa mga pasa?
+    <t>Orange
+Paano ihanda ang orange para sa mga pasa?
 Mga hakbang sa paggamit ng orange para gamutin ang mga pasa
 Paano maglagay ng orange sa mga pasa para sa mabilis na ginhawa?
 Mga tamang pamamaraan ng paggamit ng orange sa mga pasa
@@ -1735,7 +1759,7 @@
 Paano itabi ang orange para sa pangunang lunas sa mga pasa?
 Makakatulong ba ang orange sa pagpapabilis ng paggaling ng mga pasa?
 Bakit epektibo ang orange para sa mga pasa?
-Paano maglagay ng katas ng orange sa mga pasa?
+Paano maglagay ng orange sa mga pasa?
 Makakatulong ba ang orange sa pagbabawas ng kulay ng mga pasa?</t>
   </si>
   <si>
@@ -1753,7 +1777,8 @@
     <t>Spinach is a leafy green vegetable that is packed with nutrients. It is a good source of vitamins A, C, and K, as well as iron and potassium. Spinach also contains fiber and antioxidants. Spinach has been shown to have various health benefits, including boosting immunity, improving bone health, and promoting digestive health. It may also help to reduce the risk of certain chronic diseases, such as heart disease and cancer.</t>
   </si>
   <si>
-    <t>How to use spinach for skin irritation?
+    <t>Spinach
+How to use spinach for skin irritation?
 Steps to prepare spinach for minor burns
 How to apply spinach paste to inflammation?
 Best practices for using spinach on skin
@@ -1790,7 +1815,8 @@
     <t>Ang spinach ay isang malabay na berdeng gulay na puno ng mga sustansya. Ito ay isang mahusay na pinagmumulan ng mga bitamina A, C, at K, pati na rin ang iron at potasyum. Naglalaman din ang spinach ng fiber at antioxidant. Napatunayang may iba't ibang benepisyo sa kalusugan ang spinach, kabilang ang pagpapalakas ng kaligtasan sa sakit, pagpapabuti ng kalusugan ng buto, at pagtataguyod ng kalusugan ng pagtunaw. Maaari din itong makatulong na mabawasan ang panganib ng ilang malalang sakit, tulad ng sakit sa puso at kanser.</t>
   </si>
   <si>
-    <t>Paano gamitin ang spinach para sa iritasyon ng balat?
+    <t>Spinach
+Paano gamitin ang spinach para sa iritasyon ng balat?
 Mga hakbang sa paghahanda ng spinach para sa maliit na burns
 Paano ilagay ang spinach paste sa pamamaga?
 Mga tamang pamamaraan sa paggamit ng spinach sa balat
@@ -1830,7 +1856,8 @@
     <t>Cucumber is a versatile vegetable that is often used in salads, sandwiches, and other dishes. It has a crisp, refreshing taste and a high water content. Cucumbers are a good source of vitamins and minerals, including vitamin C, potassium, and magnesium. They are also a low-calorie food that can help with hydration. Cucumbers contain a compound called cucurbitacin, which may have anti-inflammatory properties. Additionally, cucumbers are a good source of fiber, which can promote digestive health.</t>
   </si>
   <si>
-    <t>How to use cucumber for skin irritation?
+    <t>Cucumber
+How to use cucumber for skin irritation?
 Steps to prepare cucumber for burns
 How to apply cucumber for puffy eyes?
 Best practices for using cucumber on skin
@@ -1855,7 +1882,8 @@
     <t>Ang pipino ay isang maraming gamit na gulay na madalas ginagamit sa mga salad, sandwich, at iba pang pagkain. Mayroon itong malutong, nakakapreskong lasa at mataas na nilalaman ng tubig. Ang mga pipino ay isang mahusay na pinagmumulan ng mga bitamina at mineral, kabilang ang bitamina C, potasyum, at magnesium. Ang mga ito ay isang mababang-kaloryang pagkain din na maaaring makatulong sa hydration. Naglalaman ang mga pipino ng isang compound na tinatawag na cucurbitacin, na maaaring magkaroon ng mga anti-inflammatory properties. Bukod dito, ang mga pipino ay isang mahusay na pinagmumulan ng fiber, na maaaring makatulong na maitaguyod ang kalusugan ng pagtunaw.</t>
   </si>
   <si>
-    <t>Paano gamitin ang pipino para sa iritasyon ng balat?
+    <t>Pipino
+Paano gamitin ang pipino para sa iritasyon ng balat?
 Mga hakbang sa paghahanda ng pipino para sa mga sunog
 Paano ilagay ang pipino para sa namamagang mata?
 Mga tamang pamamaraan sa paggamit ng pipino sa balat
@@ -1868,13 +1896,14 @@
     <t>Garlic (fever)</t>
   </si>
   <si>
-    <t>How to prepare garlic for fever?
+    <t>Garlic (fever)
+How to prepare garlic for fever?
 Steps to use garlic for treating fever
 How to apply garlic for fever relief?
 Best practices for using garlic on fever
-How to make garlic tea for fever?
+How to make garlic for fever?
 Can garlic help reduce fever symptoms?
-How to prepare garlic paste for fever treatment?
+How to prepare garlic for fever treatment?
 Benefits of using garlic for fever
 How to combine garlic with other remedies for fever?
 How to store garlic for medicinal use against fever?</t>
@@ -1893,11 +1922,12 @@
     <t>Bawang (fever)</t>
   </si>
   <si>
-    <t>Paano ihanda ang bawang para sa lagnat?
+    <t>Bawang (fever)
+Paano ihanda ang bawang para sa lagnat?
 Mga hakbang sa paggamit ng bawang para gamutin ang lagnat
 Paano maglagay ng bawang para sa ginhawa sa lagnat?
 Mga tamang pamamaraan sa paggamit ng bawang para sa lagnat
-Paano gumawa ng tsaa ng bawang para sa lagnat?
+Paano gumawa ng bawang para sa lagnat?
 Makakatulong ba ang bawang sa pagbabawas ng sintomas ng lagnat?
 Paano ihanda ang pasta ng bawang para sa paggamot ng lagnat?
 Mga benepisyo ng paggamit ng bawang para sa lagnat
@@ -1911,18 +1941,19 @@
     <t>Lemon</t>
   </si>
   <si>
-    <t>Lemon is a citrus fruit known for its tart, tangy flavor and bright yellow color. It is a good source of vitamins, minerals, and antioxidants. Lemons are rich in vitamin C, which is essential for boosting immunity and promoting overall health. They also contain vitamin A, potassium, and fiber. Lemons are a good source of antioxidants, which can help protect cells from damage. Lemons can be eaten fresh, juiced, or used in various recipes. They are a versatile fruit that can be enjoyed in many different ways.</t>
-  </si>
-  <si>
-    <t>How to prepare lemon for fever?
+    <t>Lemon is a citrus fruit known for its tart, tangy flavor and bright yellow color. It is a good source of vitamins, minerals, and antioxidants. Lemons are rich in vitamin C, which is essential for boosting immunity and promoting overall health. They also contain vitamin A, potassium, and fiber. Lemons are a good source of antioxidants, which can help protect cells from damage.  They are a versatile fruit that can be enjoyed in many different ways.</t>
+  </si>
+  <si>
+    <t>Lemon
+How to prepare lemon for fever?
 Steps to use lemon for treating fever
-How to make lemon tea for fever relief?
+How to make lemon for fever relief?
 Best practices for using lemon on fever
-How to apply lemon juice for fever symptoms?
+How to apply lemon for fever symptoms?
 Can lemon help reduce body temperature?
-How to combine lemon with honey for fever?
+How to do lemon for fever?
 Benefits of using lemon for fever
-How to prepare lemon-infused water for fever?
+How to prepare lemon for fever?
 How to store lemon for medicinal use against fever?</t>
   </si>
   <si>
@@ -1934,19 +1965,20 @@
 https://www.healthline.com/nutrition/6-lemon-health-benefits</t>
   </si>
   <si>
-    <t>Ang lemon ay isang citrus fruit na kilala sa maasim, maasim na lasa at maliwanag na dilaw na kulay. Ito ay isang mahusay na pinagmumulan ng mga bitamina, mineral, at antioxidant. Ang mga lemon ay mayaman sa bitamina C, na mahalaga para sa pagpapalakas ng kaligtasan sa sakit at pagtataguyod ng pangkalahatang kalusugan. Naglalaman din ang mga ito ng bitamina A, potasyum, at fiber. Ang mga lemon ay isang mahusay na pinagmumulan ng mga antioxidant, na maaaring makatulong na protektahan ang mga selula mula sa pinsala. Maaaring kainin ang mga lemon nang sariwa, ma-juice, o gamitin sa iba't ibang recipe. Ang mga ito ay isang maraming gamit na prutas na maaaring masiyahan sa maraming iba't ibang paraan.</t>
-  </si>
-  <si>
-    <t>Paano ihanda ang lemon para sa lagnat?
-Mga hakbang sa paggamit ng lemon para gamutin ang lagnat
-Paano gumawa ng tsaa ng lemon para sa ginhawa sa lagnat?
-Mga tamang pamamaraan sa paggamit ng lemon para sa lagnat
-Paano ilagay ang katas ng lemon para sa sintomas ng lagnat?
-Makakatulong ba ang lemon sa pagbabawas ng temperatura ng katawan?
-Paano pagsamahin ang lemon sa pulot para sa lagnat?
-Mga benepisyo ng paggamit ng lemon para sa lagnat
-Paano ihanda ang lemon-infused water para sa lagnat?
-Paano itabi ang lemon para sa medikal na gamit laban sa lagnat?</t>
+    <t>Ang lemon ay isang citrus fruit na kilala sa maasim, maasim na lasa at maliwanag na dilaw na kulay. Ito ay isang mahusay na pinagmumulan ng mga bitamina, mineral, at antioxidant. Ang mga lemon ay mayaman sa bitamina C, na mahalaga para sa pagpapalakas ng kaligtasan sa sakit at pagtataguyod ng pangkalahatang kalusugan. Naglalaman din ang mga ito ng bitamina A, potasyum, at fiber. Ang mga lemon ay isang mahusay na pinagmumulan ng mga antioxidant, na maaaring makatulong na protektahan ang mga selula mula sa pinsala. Ang mga ito ay isang maraming gamit na prutas na maaaring masiyahan sa maraming iba't ibang paraan.</t>
+  </si>
+  <si>
+    <t>Lemon
+Paano maghanda ng lemon para sa lagnat?
+Mga hakbang sa paggamit ng lemon para sa paggamot ng lagnat.
+Paano gumawa ng lemon para sa pagpapaginhawa ng lagnat?
+Pinakamahusay na paraan ng paggamit ng lemon sa lagnat.
+Paano ilapat ang lemon para sa mga sintomas ng lagnat?
+Makakatulong ba ang lemon na pababain ang temperatura ng katawan?
+Paano gamitin ang lemon para sa lagnat?
+Mga benepisyo ng paggamit ng lemon para sa lagnat.
+Paano maghanda ng lemon para sa lagnat?
+Paano itago ang lemon para sa medikal na gamit laban sa lagnat?</t>
   </si>
   <si>
     <t>Squeeze ang katas ng 1 limon sa isang baso ng maligamgam na tubig. Haluin nang maigi. Inumin agad.</t>
@@ -1967,18 +1999,19 @@
     </r>
   </si>
   <si>
-    <t>Garlic (Chest Pain)</t>
-  </si>
-  <si>
-    <t>How to prepare garlic for chest pain?
+    <t>Garlic (chest pain)</t>
+  </si>
+  <si>
+    <t>Garlic (chest pain)
+How to prepare garlic for chest pain?
 Steps to use garlic for treating chest pain
-How to make garlic tea for chest pain?
+How to make garlic for chest pain?
 Best practices for using garlic on chest pain
-How to apply garlic paste for chest pain?
+How to apply garlic for chest pain?
 Can garlic help reduce chest pain?
 How to combine garlic with other remedies for chest pain?
 Benefits of using garlic for chest pain
-How to prepare garlic-infused water for chest pain?
+How to prepare garlic for chest pain?
 How to store garlic for medicinal use against chest pain?</t>
   </si>
   <si>
@@ -1992,18 +2025,19 @@
 https://health.clevelandclinic.org/6-surprising-ways-garlic-boosts-your-health</t>
   </si>
   <si>
-    <t xml:space="preserve">Bawang (Chest Pain) </t>
-  </si>
-  <si>
-    <t>Paano maghanda ng garlic para sa sakit sa dibdib?
+    <t>Bawang (chest pain)</t>
+  </si>
+  <si>
+    <t>Bawang (chest pain)
+Paano maghanda ng garlic para sa sakit sa dibdib?
 Mga hakbang sa paggamit ng garlic para sa paggamot ng sakit sa dibdib
-Paano gumawa ng garlic tea para sa sakit sa dibdib?
+Paano gumawa ng garlic para sa sakit sa dibdib?
 Mga tamang pamamaraan sa paggamit ng garlic sa sakit sa dibdib
-Paano ilagay ang garlic paste para sa sakit sa dibdib?
+Paano ilagay ang garlic para sa sakit sa dibdib?
 Makakatulong ba ang garlic sa pagbabawas ng sakit sa dibdib?
 Paano pagsamahin ang garlic sa iba pang remedyo para sa sakit sa dibdib?
 Mga benepisyo ng paggamit ng garlic para sa sakit sa dibdib
-Paano ihanda ang garlic-infused water para sa sakit sa dibdib?
+Paano ihanda ang garlic para sa sakit sa dibdib?
 Paano itabi ang garlic para sa medikal na gamit laban sa sakit sa dibdib?</t>
   </si>
   <si>
@@ -2027,18 +2061,22 @@
     </r>
   </si>
   <si>
-    <t>Ginger (Chest Pain)</t>
-  </si>
-  <si>
-    <t>How to prepare ginger for chest pain?
+    <t>Ginger (chest pain)</t>
+  </si>
+  <si>
+    <t>Ginger is a popular spice and medicinal herb used in various cuisines around the world. It has a distinct, pungent flavor and aroma. Ginger is rich in antioxidants and bioactive compounds that may have health benefits. Some of these compounds include gingerol, shogaol, and zingerone. These compounds may help reduce inflammation, improve digestion, and relieve nausea. Additionally, Ginger has been studied for its potential to lower blood sugar levels and improve heart health.</t>
+  </si>
+  <si>
+    <t>Ginger (chest pain)
+How to prepare ginger for chest pain?
 Steps to use ginger for treating chest pain
-How to make ginger tea for chest pain?
+How to make ginger for chest pain?
 Best practices for using ginger on chest pain
-How to apply ginger paste for chest pain?
+How to apply ginger for chest pain?
 Can ginger help reduce chest pain?
 How to combine ginger with other remedies for chest pain?
 Benefits of using ginger for chest pain
-How to prepare ginger-infused water for chest pain?
+How to prepare ginger for chest pain?
 How to store ginger for medicinal use against chest pain?</t>
   </si>
   <si>
@@ -2050,18 +2088,19 @@
 http://www.philippineherbalmedicine.org/ginger.htm</t>
   </si>
   <si>
-    <t>Luya (Chest Pain)</t>
-  </si>
-  <si>
-    <t>Paano maghanda ng ginger para sa sakit sa dibdib?
+    <t>Luya (chest pain)</t>
+  </si>
+  <si>
+    <t>Luya (chest pain)
+Paano maghanda ng ginger para sa sakit sa dibdib?
 Mga hakbang sa paggamit ng ginger para sa paggamot ng sakit sa dibdib
-Paano gumawa ng ginger tea para sa sakit sa dibdib?
+Paano gumawa ng ginger para sa sakit sa dibdib?
 Mga tamang pamamaraan sa paggamit ng ginger sa sakit sa dibdib
-Paano ilagay ang ginger paste para sa sakit sa dibdib?
+Paano ilagay ang ginger para sa sakit sa dibdib?
 Makakatulong ba ang ginger sa pagbabawas ng sakit sa dibdib?
 Paano pagsamahin ang ginger sa ibang remedyo para sa sakit sa dibdib?
 Mga benepisyo ng paggamit ng ginger para sa sakit sa dibdib
-Paano ihanda ang ginger-infused water para sa sakit sa dibdib?
+Paano ihanda ang ginger para sa sakit sa dibdib?
 Paano itabi ang ginger para sa medikal na gamit laban sa sakit sa dibdib?</t>
   </si>
   <si>
@@ -2089,15 +2128,16 @@
     <t>Almonds are a type of tree nut that are popular for their nutty flavor and nutritional value. They are a good source of healthy fats, fiber, protein, and antioxidants. Almonds are rich in monounsaturated fats, which can help lower cholesterol levels. They are also a good source of vitamin E, which is an antioxidant that can help protect cells from damage. Additionally, almonds contain fiber, which can promote digestive health.</t>
   </si>
   <si>
-    <t>How to prepare almonds for chest pain?
+    <t>Almond
+How to prepare almonds for chest pain?
 Steps to use almonds for treating chest pain
-How to make almond milk for chest pain?
+How to make almond for chest pain?
 Best practices for using almonds on chest pain
-How to apply almond paste for chest pain?
+How to apply almond for chest pain?
 Can almonds help reduce chest pain?
 How to combine almonds with other remedies for chest pain?
 Benefits of using almonds for chest pain
-How to prepare almond-infused water for chest pain?
+How to prepare almond for chest pain?
 How to store almonds for medicinal use against chest pain?</t>
   </si>
   <si>
@@ -2112,15 +2152,16 @@
     <t>Ang mga almond ay isang uri ng tree nut na sikat sa kanilang nutty na lasa at nutritional value. Ang mga ito ay isang mahusay na pinagmumulan ng malusog na taba, fiber, protina, at antioxidant. Ang mga almond ay mayaman sa monounsaturated fats, na maaaring makatulong na ibaba ang mga antas ng kolesterol. Ang mga ito ay isang mahusay din na pinagmumulan ng bitamina E, na isang antioxidant na maaaring makatulong na protektahan ang mga selula mula sa pinsala. Bukod dito, naglalaman ang mga almond ng fiber, na maaaring maitaguyod ang kalusugan ng pagtunaw.</t>
   </si>
   <si>
-    <t>Paano maghanda ng almonds para sa sakit sa dibdib?
+    <t>Almond
+Paano maghanda ng almonds para sa sakit sa dibdib?
 Mga hakbang sa paggamit ng almonds para sa paggamot ng sakit sa dibdib
-Paano gumawa ng almond milk para sa sakit sa dibdib?
+Paano gumawa ng almond para sa sakit sa dibdib?
 Mga tamang pamamaraan sa paggamit ng almonds sa sakit sa dibdib
-Paano ilagay ang almond paste para sa sakit sa dibdib?
+Paano ilagay ang almond para sa sakit sa dibdib?
 Makakatulong ba ang almonds sa pagbabawas ng sakit sa dibdib?
 Paano pagsamahin ang almonds sa ibang remedyo para sa sakit sa dibdib?
 Mga benepisyo ng paggamit ng almonds para sa sakit sa dibdib
-Paano ihanda ang almond-infused water para sa sakit sa dibdib?
+Paano ihanda ang almondpara sa sakit sa dibdib?
 Paano itabi ang almonds para sa medikal na gamit laban sa sakit sa dibdib?</t>
   </si>
   <si>
@@ -2612,7 +2653,7 @@
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2654,7 +2695,7 @@
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2696,7 +2737,7 @@
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2738,7 +2779,7 @@
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2780,7 +2821,7 @@
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2822,7 +2863,7 @@
       <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -2864,23 +2905,23 @@
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -2906,23 +2947,23 @@
       <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -2946,25 +2987,25 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -2988,25 +3029,25 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -3030,25 +3071,25 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -3072,25 +3113,25 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -3114,25 +3155,25 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -3156,25 +3197,25 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>90</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -3198,25 +3239,25 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -3240,25 +3281,25 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -3282,25 +3323,25 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -3324,25 +3365,25 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -3366,25 +3407,25 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -3408,25 +3449,25 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>125</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -3450,25 +3491,25 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -3492,25 +3533,25 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>136</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -3534,25 +3575,25 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -3576,10 +3617,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>56</v>
+        <v>153</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>154</v>
@@ -3620,8 +3661,8 @@
       <c r="A28" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>56</v>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>160</v>
@@ -3662,8 +3703,8 @@
       <c r="A29" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>56</v>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>165</v>
@@ -3704,8 +3745,8 @@
       <c r="A30" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>56</v>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>171</v>
@@ -3746,8 +3787,8 @@
       <c r="A31" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>56</v>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>177</v>
@@ -3788,8 +3829,8 @@
       <c r="A32" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>56</v>
+      <c r="B32" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>183</v>
@@ -3830,8 +3871,8 @@
       <c r="A33" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>56</v>
+      <c r="B33" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>189</v>
@@ -3872,8 +3913,8 @@
       <c r="A34" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>56</v>
+      <c r="B34" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>194</v>
@@ -3914,8 +3955,8 @@
       <c r="A35" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>56</v>
+      <c r="B35" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>199</v>
@@ -3956,8 +3997,8 @@
       <c r="A36" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>56</v>
+      <c r="B36" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>204</v>
@@ -3998,8 +4039,8 @@
       <c r="A37" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>56</v>
+      <c r="B37" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>210</v>
@@ -4040,8 +4081,8 @@
       <c r="A38" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>56</v>
+      <c r="B38" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>215</v>
@@ -4082,8 +4123,8 @@
       <c r="A39" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>56</v>
+      <c r="B39" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>220</v>
@@ -4124,8 +4165,8 @@
       <c r="A40" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>56</v>
+      <c r="B40" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>225</v>
@@ -4166,8 +4207,8 @@
       <c r="A41" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>56</v>
+      <c r="B41" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>230</v>
@@ -4208,8 +4249,8 @@
       <c r="A42" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>56</v>
+      <c r="B42" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>235</v>
@@ -4250,8 +4291,8 @@
       <c r="A43" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>56</v>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>241</v>
@@ -4292,8 +4333,8 @@
       <c r="A44" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>56</v>
+      <c r="B44" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>247</v>
@@ -4334,8 +4375,8 @@
       <c r="A45" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>56</v>
+      <c r="B45" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>251</v>
@@ -4376,8 +4417,8 @@
       <c r="A46" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>56</v>
+      <c r="B46" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>256</v>
@@ -4418,8 +4459,8 @@
       <c r="A47" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>56</v>
+      <c r="B47" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>260</v>
@@ -4460,8 +4501,8 @@
       <c r="A48" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>56</v>
+      <c r="B48" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>265</v>
@@ -4502,8 +4543,8 @@
       <c r="A49" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>56</v>
+      <c r="B49" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>271</v>
@@ -4544,8 +4585,8 @@
       <c r="A50" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>56</v>
+      <c r="B50" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>204</v>
@@ -4586,8 +4627,8 @@
       <c r="A51" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>56</v>
+      <c r="B51" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>210</v>
@@ -4628,8 +4669,8 @@
       <c r="A52" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>56</v>
+      <c r="B52" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>283</v>
@@ -4670,8 +4711,8 @@
       <c r="A53" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>56</v>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>287</v>
@@ -4712,8 +4753,8 @@
       <c r="A54" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>56</v>
+      <c r="B54" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>204</v>
@@ -4754,8 +4795,8 @@
       <c r="A55" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>56</v>
+      <c r="B55" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>210</v>
@@ -4796,23 +4837,23 @@
       <c r="A56" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>56</v>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>294</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
@@ -4836,25 +4877,25 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>56</v>
+        <v>306</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>299</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -4878,25 +4919,25 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>56</v>
+        <v>310</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>294</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -4920,25 +4961,25 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>56</v>
+        <v>310</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>299</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>

--- a/models/astra-v3/training/dataset-clean-treatment.xlsx
+++ b/models/astra-v3/training/dataset-clean-treatment.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="321">
   <si>
     <t>Tag</t>
   </si>
@@ -79,8 +79,8 @@
   </si>
   <si>
     <t>Diarrhea
-Heat Exhaustion
-Heat Stroke
+Heat exhaustion
+Heat stroke
 Dehydration</t>
   </si>
   <si>
@@ -142,8 +142,8 @@
   </si>
   <si>
     <t>Pagtatae
-Pagkapagod sa Init
-Heat Stroke
+Pagkapagod sa init
+Heat stroke
 Dehydration</t>
   </si>
   <si>
@@ -185,7 +185,7 @@
 Benefits of lemongrass for dehydration.
 How to apply lemongrass for abdominal pain?
 How to combine lemongrass with other remedies for heat exhaustion?
-How to prepare lemongrass water for heat stroke?
+How to prepare lemongrass for heat stroke?
 How to apply lemongrass for symptoms of dehydration?
 How to store lemongrass for medicinal use?
 How to make a lemongrass for hydration?
@@ -203,9 +203,9 @@
     <t>Gather Ingredients: Fresh tanglad stalks, water, optional sweeteners (honey or sugar), and optional flavorings (ginger or lemon). Wash and Chop: Thoroughly wash the tanglad stalks and chop them into small pieces. Boil Water: Bring a pot of water to a boil. Add Tanglad: Add the chopped tanglad to the boiling water. Simmer: Reduce the heat and let it simmer for about 10-15 minutes. Strain: Strain the tea to remove the tanglad pieces. Serve: Consume your tanglad tea slowly hot or let it cool.</t>
   </si>
   <si>
-    <t>Abdominal Pain
-Heat Exhaustion
-Heat Stroke
+    <t>Abdominal pain
+Heat exhaustion
+Heat stroke
 Dehydration</t>
   </si>
   <si>
@@ -247,7 +247,7 @@
 Mga benepisyo ng tanglad sa dehydration.
 Paano ilagay ang tanglad para sa abdominal pain?
 Paano pagsamahin ang tanglad sa ibang remedyo para sa heat exhaustion?
-Paano ihanda ang tanglad water para sa heat stroke?s
+Paano ihanda ang tanglad para sa heat stroke?s
 Paano maglagay ng tanglad sa mga sintomas ng dehydration?
 Paano mag-imbak ng tanglad para sa panggagamot?
 Paano gawing smoothie ang tanglad para sa hydration?
@@ -265,9 +265,9 @@
     <t>Magtipon ng Mga Sangkap: Mga sariwang tanglad, tubig, mga opsyonal na pampatamis (pulot o asukal), at mga opsyonal na pampalasa (luya o lemon). Hugasan at Tadtarin: Hugasan nang maigi ang tanglad at tadtarin ito ng maliliit. Pakuluan ang Tubig: Pakuluan ang isang palayok ng tubig. Magdagdag ng Tanglad: Idagdag ang tinadtad na tanglad sa kumukulong tubig. Kumulo: Bawasan ang apoy at hayaang kumulo ng mga 10-15 minuto. Salain: Salain ang tsaa para matanggal ang mga piraso ng tanglad. Ihain: Uminom ng iyong tanglad tea nang dahan-dahang mainit o hayaan itong lumamig.</t>
   </si>
   <si>
-    <t>Abdominal Pain
-Pagkapagod sa Init
-Heat Stroke
+    <t>Abdominal pain
+Pagkapagod sa init
+Heat stroke
 Dehydration</t>
   </si>
   <si>
@@ -336,25 +336,33 @@
     <t>Gather Ingredients: Fresh or dried lagundi leaves, water. Wash and Chop: Thoroughly wash the lagundi leaves and chop them into small pieces. Boil Water: Bring 2 cups of water to a boil. Add Lagundi: Add half a cup of chopped fresh or dried lagundi leaves to the boiling water. Simmer: Reduce the heat and let it simmer for 10-15 minutes. Strain: Strain the mixture to remove the leaves. Drink: Drink half a cup of the decoction three times a day.</t>
   </si>
   <si>
-    <t>Nasal Congestion
+    <t>Nasal congestion
 Cough
-Broken Toe
+Broken toe
 Diarrhea
-Nose Bleed
+Nose bleed
 Vertigo
-Head Injury
+Head injury
 Headache
 Cold</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://drfarrahmd.com/2020/10/lagundi-natural-remedy-for-respiratory</t>
+    </r>
+    <r>
       <rPr/>
-      <t xml:space="preserve">https://drfarrahmd.com/2020/10/lagundi-natural-remedy-for-respiratory/
-https://www.pchrd.dost.gov.ph/heartnovation/lagundi-anti-cough-and-anti-asthma-medicine/
+      <t xml:space="preserve">
+https://www.pchrd.dost.gov.ph/heartnovation/lagundi-anti-cough-and-anti-asthma-medicine
 </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF000000"/>
         <u/>
       </rPr>
       <t>https://www.pharexhealth.com/health-articles/6-benefits-of-lagundi-for-dry-cough</t>
@@ -404,25 +412,33 @@
     <t>Magtipon ng Mga Sangkap: Sariwa o tuyo na dahon ng lagundi, tubig. Hugasan at Tadtarin: Hugasan nang maigi ang mga dahon ng lagundi at tadtarin ito ng maliliit. Pakuluan ang Tubig: Pakuluan ang 2 basong tubig. Magdagdag ng Lagundi: Magdagdag ng kalahating tasa ng tinadtad na sariwa o tuyo na dahon ng lagundi sa kumukulong tubig. Kumulo: Bawasan ang apoy at hayaang kumulo ng 10-15 minuto. Salain: Salain ang pinaghalong para maalis ang mga dahon. Inumin: Uminom ng kalahating tasa ng decoction tatlong beses sa isang araw.</t>
   </si>
   <si>
-    <t>Baradong Ilong
+    <t>Baradong ilong
 Ubo
-Daliri ng Paa na Nasira
+Daliri ng paa na nasira
 Pagtatae
-Dumudugo sa Ilong
+Dumudugo sa ilong
 Vertigo
-Pinsala sa Ulo
-Sakit ng Ulo
+Pinsala sa ulo
+Sakit ng ulo
 Sipon</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://drfarrahmd.com/2020/10/lagundi-natural-remedy-for-respiratory</t>
+    </r>
     <r>
       <rPr/>
-      <t xml:space="preserve">https://drfarrahmd.com/2020/10/lagundi-natural-remedy-for-respiratory/
-https://www.pchrd.dost.gov.ph/heartnovation/lagundi-anti-cough-and-anti-asthma-medicine/
+      <t xml:space="preserve">
+https://www.pchrd.dost.gov.ph/heartnovation/lagundi-anti-cough-and-anti-asthma-medicine
 </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF000000"/>
         <u/>
       </rPr>
       <t>https://www.pharexhealth.com/health-articles/6-benefits-of-lagundi-for-dry-cough</t>
@@ -446,9 +462,8 @@
     <t>Gather Ingredients: Fresh oregano leaves, water. Wash and Chop: Thoroughly wash the oregano leaves and chop them into small pieces. Boil Water: Bring 2 cups of water to a boil. Add Oregano: Add half a cup of chopped oregano leaves to the boiling water. Simmer: Reduce the heat and let it simmer for 10-15 minutes. Strain: Strain the mixture to remove the leaves. Drink: Drink half a cup of the decoction three times a day.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nasal Congestion
-Cough
-</t>
+    <t>Nasal congestion
+Cough</t>
   </si>
   <si>
     <r>
@@ -479,9 +494,8 @@
     <t>Kunin ang mga Sangkap: Sariwang dahon ng oregano, tubig. Hugasan at Tadtarin: Hugasan nang mabuti ang mga dahon ng oregano at tadtarin ito ng maliliit na piraso. Pakuluan ang Tubig: Pakuluan ang 2 tasa ng tubig. Idagdag ang Oregano: Idagdag ang kalahating tasa ng tinadtad na dahon ng oregano sa kumukulong tubig. Pakuluin: Bawasan ang init at hayaang kumulo ng 10-15 minuto. Salain: Salain ang pinagpakuluan upang alisin ang mga dahon. Inumin: Uminom ng kalahating tasa ng pinagpakuluan tatlong beses sa isang araw.</t>
   </si>
   <si>
-    <t xml:space="preserve">Baradong Ilong
-ubo
-</t>
+    <t>Baradong ilong
+Ubo</t>
   </si>
   <si>
     <r>
@@ -550,20 +564,19 @@
     <t>Step 1: Harvesting: Gather fresh sambong leaves from a clean, unpolluted environment. Step 2: Washing: Rinse the leaves thoroughly under running water to remove dirt and impurities. Step 3: Preparation: Tea: Boil a handful of sambong leaves in a cup of water for 5-10 minutes. Strain and let it cool before drinking. Poultice: Crush the leaves into a paste and apply directly to the affected area. Gargle: For sore throat, gargle with a warm sambong tea. Step 4: Uses: Nasal congestion and cough: Drink the sambong tea to help clear congestion and soothe coughs. Broken pain: Apply the sambong poultice to the injured area to reduce pain and inflammation. Nosebleed: Apply a cold compress soaked in sambong tea to the bridge of the nose to help stop bleeding. Food poisoning: Drink sambong tea to help soothe the digestive system and relieve symptoms like nausea and diarrhea. Head injury: Apply a cold compress soaked in sambong tea to the affected area to reduce swelling and pain. Cold: Drink sambong tea to help boost immunity and alleviate cold symptoms.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nasal Congestion
+    <t>Nasal Congestion
 Cough
 Broken Toe
 Nose Bleed
 Food Poison
 Head Injury
-Cold
-</t>
+Cold</t>
   </si>
   <si>
     <r>
       <rPr/>
       <t xml:space="preserve">https://www.pchrd.dost.gov.ph/heartnovation/sambong-tablet-herbal-drug-formulation-for-kidney-stones
-https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/sambong-benefits/
+https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/sambong-benefits
 </t>
     </r>
     <r>
@@ -571,7 +584,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://www.pchrd.dost.gov.ph/heartnovation/sambong-tablet-herbal-drug-formulation-for-kidney-stones/</t>
+      <t>https://www.pchrd.dost.gov.ph/heartnovation/sambong-tablet-herbal-drug-formulation-for-kidney-stones</t>
     </r>
   </si>
   <si>
@@ -617,20 +630,18 @@
     <t>Hakbang 1: Pag-kuha: Pumili ng sariwang mga dahon ng sambong mula sa malinis at hindi maruming lugar. Hakbang 2: Paghuhugas: Hugasan nang mabuti ang mga dahon sa ilalim ng tubig na umaagos upang alisin ang dumi at mga impurities. Hakbang 3: Paghahanda: Tea: Pakuluan ang isang dakot ng mga dahon ng sambong sa isang tasa ng tubig sa loob ng 5-10 minuto. Salain at hayaang lumamig bago uminom. Poultice: Dudugin ang mga dahon hanggang maging paste at ilapat nang direkta sa apektadong lugar. Gargle: Para sa namamagang lalamunan, magmumog ng maligamgam na tsaang sambong. Hakbang 4: Mga Gamit: Kasikipan ng ilong at ubo: Uminom ng tsaang sambong upang makatulong na malinis ang kasikipan at mapawi ang ubo. Sakit ng buto: Ilapat ang sambong poultice sa nasugatan na lugar upang mabawasan ang sakit at pamamaga. Pagdurugo ng ilong: Ilapat ang malamig na compress na binabad sa tsaang sambong sa tulay ng ilong upang makatulong na ihinto ang pagdurugo. Pagkalason sa pagkain: Uminom ng tsaang sambong upang makatulong na mapawi ang sistema ng pagtunaw at maibsan ang mga sintomas tulad ng pagsusuka at pagtatae. Sakit sa ulo: Ilapat ang malamig na compress na binabad sa tsaang sambong sa apektadong lugar upang mabawasan ang pamamaga at sakit. Sipon: Uminom ng tsaang sambong upang makatulong na palakasin ang immune system at mapawi ang mga sintomas ng sipon.</t>
   </si>
   <si>
-    <t xml:space="preserve">Baradong Ilong
+    <t>Baradong ilong
 Ubo
-Daliri ng Paa na Nasira
-Dumudugo sa Ilong
-Pagkalason sa Pagkain
-Pinsala sa Ulo
-Sipon
-</t>
+Daliri ng paa na nasira
+Dumudugo sa ilong
+Pagkalason sa pagkain
+Pinsala sa ulo
+Sipon</t>
   </si>
   <si>
     <r>
       <rPr/>
       <t xml:space="preserve">https://www.pchrd.dost.gov.ph/heartnovation/sambong-tablet-herbal-drug-formulation-for-kidney-stones
-https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/sambong-benefits/
 </t>
     </r>
     <r>
@@ -638,7 +649,19 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://www.pchrd.dost.gov.ph/heartnovation/sambong-tablet-herbal-drug-formulation-for-kidney-stones/</t>
+      <t>https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/sambong-benefits</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.pchrd.dost.gov.ph/heartnovation/sambong-tablet-herbal-drug-formulation-for-kidney-stones</t>
     </r>
   </si>
   <si>
@@ -659,12 +682,12 @@
     <t>Gather Ingredients: Fresh Tsaang Gubat leaves, water. Wash and Chop: Thoroughly wash the Tsaang Gubat leaves and chop them into small pieces. Boil Water: Bring 2 cups of water to a boil. Add Tsaang Gubat: Add half a cup of chopped Tsaang Gubat leaves to the boiling water. Simmer: Reduce the heat and let it simmer for 10-15 minutes. Strain: Strain the mixture to remove the leaves. Drink: Drink half a cup of the decoction three times a day.</t>
   </si>
   <si>
-    <t>Abdominal Pain
-Broken Toe
+    <t>Abdominal pain
+Broken toe
 Diarrhea
-Nose Bleed
+Nose bleed
 Vertigo
-Head Injury
+Head injury
 Cold</t>
   </si>
   <si>
@@ -700,12 +723,12 @@
     <t>Kunin ang mga Sangkap: Sariwang dahon ng Tsaang Gubat, tubig. Hugasan at Tadtarin: Hugasan nang mabuti ang mga dahon ng Tsaang Gubat at tadtarin ito ng maliliit na piraso. Pakuluan ang Tubig: Pakuluan ang 2 tasa ng tubig. Idagdag ang Tsaang Gubat: Idagdag ang kalahating tasa ng tinadtad na dahon ng Tsaang Gubat sa kumukulong tubig. Pakuluin: Bawasan ang init at hayaang kumulo ng 10-15 minuto. Salain: Salain ang pinagpakuluan upang alisin ang mga dahon. Inumin: Uminom ng kalahating tasa ng pinagpakuluan tatlong beses sa isang araw.</t>
   </si>
   <si>
-    <t>Abdominal Pain
-Daliri ng Paa na Nasira
+    <t>Abdominal pain
+Daliri ng paa na nasira
 Pagtatae
-Dumudugo sa Ilong
+Dumudugo sa ilong
 Vertigo
-Pinsala sa Ulo
+Pinsala sa ulo
 SIpon</t>
   </si>
   <si>
@@ -767,18 +790,32 @@
   </si>
   <si>
     <t>Vertigo
-Food Poison
+Food poison
 Headache
 Fever
-Abdominal Pain
+Abdominal pain
 Cold
 Strain</t>
   </si>
   <si>
-    <t>https://www.aigastro.net/blog/305938-can-ginger-actually-help-your-upset-stomach/%20(accessed%20Sep.%2005,%202024)https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/luya-benefits/
-https://pinascuisine.com/luya/
-http://www.philippineherbalmedicine.org/ginger.htm
-https://theherbalacademy.com/blog/8-herbal-home-remedies-for-colds-and-flu/</t>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://www.aigastro.net/blog/305938-can-ginger-actually-help-your-upset-stomach/%20(accessed%20Sep.%2005,%202024)https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/luya-benefits
+https://pinascuisine.com/luya
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://www.philippineherbalmedicine.org/ginger.htm</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+https://theherbalacademy.com/blog/8-herbal-home-remedies-for-colds-and-flu</t>
+    </r>
   </si>
   <si>
     <t>Luya</t>
@@ -824,18 +861,18 @@
   </si>
   <si>
     <t>Vertigo
-Pagkalason sa Pagkain
-Sakit ng Ulo
+Pagkalason sa pagkain
+Sakit ng ulo
 Fever
-Abdominal Pain
+Abdominal pain
 Sipon
 Strain</t>
   </si>
   <si>
     <r>
       <rPr/>
-      <t xml:space="preserve">https://www.aigastro.net/blog/305938-can-ginger-actually-help-your-upset-stomach/%20(accessed%20Sep.%2005,%202024)https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/luya-benefits/
-https://pinascuisine.com/luya/
+      <t xml:space="preserve">https://www.aigastro.net/blog/305938-can-ginger-actually-help-your-upset-stomach/%20(accessed%20Sep.%2005,%202024)https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/luya-benefits
+https://pinascuisine.com/luya
 http://www.philippineherbalmedicine.org/ginger.htm
 </t>
     </r>
@@ -844,7 +881,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://theherbalacademy.com/blog/8-herbal-home-remedies-for-colds-and-flu/</t>
+      <t>https://theherbalacademy.com/blog/8-herbal-home-remedies-for-colds-and-flu</t>
     </r>
   </si>
   <si>
@@ -870,7 +907,7 @@
     <t>Take a handful of dried Ginkgo Biloba leaves. Boil 2 cups of water. Add the leaves to the boiling water. Let it simmer for 10-15 minutes. Strain the leaves and pour the tea into a cup. Drink 1-2 cups daily.</t>
   </si>
   <si>
-    <t>Head Injury</t>
+    <t>Head injury</t>
   </si>
   <si>
     <t>https://medicaltrendsnow.com/ent/treatments-for-vertigo
@@ -897,7 +934,7 @@
     <t>Kumuha ng isang dakot ng pinatuyong dahon ng Ginkgo Biloba. Pakuluan ang 2 tasa ng tubig. Idagdag ang mga dahon sa kumukulong tubig. Hayaang kumulo ng 10-15 minuto. Salain ang mga dahon at ibuhos ang tsaa sa tasa. Uminom ng 1-2 tasa araw-araw.</t>
   </si>
   <si>
-    <t>Pinsala sa Ulo</t>
+    <t>Pinsala sa ulo</t>
   </si>
   <si>
     <t>https://medicaltrendsnow.com/ent/treatments-for-vertigo
@@ -924,14 +961,21 @@
   <si>
     <t>Cuts
 Burn
-Nose Bleed
+Nose bleed
 Bleeding
-Food Poison</t>
-  </si>
-  <si>
+Food poison</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://medicaltrendsnow.com/emergency-medicine/treatments-for-food-poisoning-in-the-philippines</t>
+    </r>
     <r>
       <rPr/>
-      <t xml:space="preserve">https://medicaltrendsnow.com/emergency-medicine/treatments-for-food-poisoning-in-the-philippines/
+      <t xml:space="preserve">
 https://www.healthline.com/nutrition/8-benefits-of-guavas
 </t>
     </r>
@@ -968,19 +1012,30 @@
   <si>
     <t>Hiwa
 Paso
-Dumudugo sa Ilong
+Dumudugo sa ilong
 Pagdurugo
-Pagkalason sa Pagkain</t>
+Pagkalason sa pagkain</t>
   </si>
   <si>
     <r>
       <rPr/>
       <t xml:space="preserve">https://www.prutaslokal.com/blog/28-tips-at-benefits-sa-pagkain-ng-bayabas
 https://www.healthline.com/nutrition/8-benefits-of-guavas
-https://www.pchrd.dost.gov.ph/news_and_updates/dost-pchrd-supported-program-on-top-tier-plants-intended-for-treating-diseases-undergoes-formulation-stage/
+https://www.pchrd.dost.gov.ph/news_and_updates/dost-pchrd-supported-program-on-top-tier-plants-intended-for-treating-diseases-undergoes-formulation-stage
 https://www.herbalgoodnessco.com/en-ca/blogs/healthy-living/everything-you-ever-wanted-to-know-about-guava-leaves-herbal-goodness
 https://www.healthline.com/nutrition/8-benefits-of-guavas
-https://medicaltrendsnow.com/emergency-medicine/treatments-for-food-poisoning-in-the-philippines/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://medicaltrendsnow.com/emergency-medicine/treatments-for-food-poisoning-in-the-philippines</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
 https://www.healthline.com/nutrition/8-benefits-of-guavas
 </t>
     </r>
@@ -1013,30 +1068,6 @@
     <t>Fainting</t>
   </si>
   <si>
-    <t>https://www.philippineherbalmedicine.org/medicinal_plants.htm
-https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/atis-benefits/</t>
-  </si>
-  <si>
-    <t>Atis</t>
-  </si>
-  <si>
-    <t>Ang atis, na kilala rin bilang custard apple, ay isang tropikal na prutas na katutubo sa Amerika. Mayroon itong kakaibang hitsura na may berdeng, butlig-butlig na balat at malambot, parang custard na laman sa loob. Ang atis ay mayaman sa mga sustansya, kabilang ang mga bitamina A, C, at mga bitamina B, pati na rin ang mga mineral tulad ng potassium at iron. Ito rin ay isang mahusay na pinagmumulan ng fiber. Sa tradisyunal na medisina, ginagamit ang atis upang gamutin ang iba't ibang karamdaman, tulad ng pagtatae, lagnat, at mga kondisyon sa balat. May ilang pag-aaral na nagpapahiwatig na ang atis ay maaaring may antioxidant at anti-inflammatory na katangian.</t>
-  </si>
-  <si>
-    <t>Atis
-Paano maghanda ng Atis para sa pagkahimatay
-Mga hakbang sa paggamit ng Atis para sa pagkahimatay
-Paano gamitin ang Atis para sa pagkahimatay?
-Mga tamang pamamaraan ng paggamit ng Atis sa mga remedyo sa bahay
-Paano gumawa ng Atis para sa pagkahimatay?</t>
-  </si>
-  <si>
-    <t>Durugin ang ilang sariwang dahon ng atis upang lumabas ang katas. Ilagay ang dinurog na dahon sa ilong. Singhutin ang amoy ng dahon upang makatulong na gisingin ang taong nahimatay.</t>
-  </si>
-  <si>
-    <t>Nanghihina</t>
-  </si>
-  <si>
     <r>
       <rPr/>
       <t xml:space="preserve">https://www.philippineherbalmedicine.org/medicinal_plants.htm
@@ -1047,7 +1078,41 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/atis-benefits/</t>
+      <t>https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/atis-benefits</t>
+    </r>
+  </si>
+  <si>
+    <t>Atis</t>
+  </si>
+  <si>
+    <t>Ang atis, na kilala rin bilang custard apple, ay isang tropikal na prutas na katutubo sa Amerika. Mayroon itong kakaibang hitsura na may berdeng, butlig-butlig na balat at malambot, parang custard na laman sa loob. Ang atis ay mayaman sa mga sustansya, kabilang ang mga bitamina A, C, at mga bitamina B, pati na rin ang mga mineral tulad ng potassium at iron. Ito rin ay isang mahusay na pinagmumulan ng fiber. Sa tradisyunal na medisina, ginagamit ang atis upang gamutin ang iba't ibang karamdaman, tulad ng pagtatae, lagnat, at mga kondisyon sa balat. May ilang pag-aaral na nagpapahiwatig na ang atis ay maaaring may antioxidant at anti-inflammatory na katangian.</t>
+  </si>
+  <si>
+    <t>Atis
+Paano maghanda ng Atis para sa pagkahimatay
+Mga hakbang sa paggamit ng Atis para sa pagkahimatay
+Paano gamitin ang Atis para sa pagkahimatay?
+Mga tamang pamamaraan ng paggamit ng Atis sa mga remedyo sa bahay
+Paano gumawa ng Atis para sa pagkahimatay?</t>
+  </si>
+  <si>
+    <t>Durugin ang ilang sariwang dahon ng atis upang lumabas ang katas. Ilagay ang dinurog na dahon sa ilong. Singhutin ang amoy ng dahon upang makatulong na gisingin ang taong nahimatay.</t>
+  </si>
+  <si>
+    <t>Nanghihina</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://www.philippineherbalmedicine.org/medicinal_plants.htm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/atis-benefits</t>
     </r>
   </si>
   <si>
@@ -1071,10 +1136,20 @@
     <t>Headache</t>
   </si>
   <si>
-    <t>https://www.pchrd.dost.gov.ph/heartnovation/sambong-tablet-herbal-drug-formulation-for-kidney-stones/
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.pchrd.dost.gov.ph/heartnovation/sambong-tablet-herbal-drug-formulation-for-kidney-stones</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
 https://www.philippineherbalmedicine.org/doh_herbs.htm
 https://globalfoodbook.com/17-remarkable-benefits-of-yerba-buena
-https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/yerba-buena-plant-benefits/</t>
+https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/yerba-buena-plant-benefits</t>
+    </r>
   </si>
   <si>
     <t>Ang yerba buena, na kilala rin bilang peppermint, ay isang tanyag na halamang-gamot na ginagamit sa pagluluto at tradisyunal na medisina. Ito ay may nakakapreskong, minty na lasa at aroma. Ang yerba buena ay mayaman sa antioxidants at bioactive na mga sangkap na maaaring magbigay ng benepisyo sa kalusugan. Isa sa mga sangkap na ito ay ang menthol, na nagbibigay ng malamig na pakiramdam. Maaaring makatulong ang yerba buena sa pagpapagaan ng mga problema sa pagtunaw, tulad ng kabag at hangin sa tiyan. Maaari rin itong makatulong na mabawasan ang stress at anxiety.</t>
@@ -1096,7 +1171,7 @@
   <si>
     <r>
       <rPr/>
-      <t xml:space="preserve">https://www.pchrd.dost.gov.ph/heartnovation/sambong-tablet-herbal-drug-formulation-for-kidney-stones/
+      <t xml:space="preserve">https://www.pchrd.dost.gov.ph/heartnovation/sambong-tablet-herbal-drug-formulation-for-kidney-stones
 https://www.philippineherbalmedicine.org/doh_herbs.htm
 https://globalfoodbook.com/17-remarkable-benefits-of-yerba-buena
 </t>
@@ -1106,7 +1181,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/yerba-buena-plant-benefits/</t>
+      <t>https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/yerba-buena-plant-benefits</t>
     </r>
   </si>
   <si>
@@ -1130,10 +1205,24 @@
     <t>Cold</t>
   </si>
   <si>
-    <t>https://mypharma.ph/articles/10-classic-home-remedies-trusted-by-filipino-moms
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://mypharma.ph/articles/10-classic-home-remedies-trusted-by-filipino-moms
 https://uscitrus.com/blogs/citrus-delight-blog/calamondin-magic-7-amazing-health-benefits-of-calamansi-juice
-https://www.thelittleepicurean.com/calamansi-juice/
-https://nawon.com.vn/calamansi-juice-8-benefits-of-this-tasty-citrus-fruit/</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.thelittleepicurean.com/calamansi-juice</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+https://nawon.com.vn/calamansi-juice-8-benefits-of-this-tasty-citrus-fruit</t>
+    </r>
   </si>
   <si>
     <t>Ang kalamansi ay isang maliit na prutas na sitrus na katutubo sa Pilipinas. Madalas itong tinatawag na `Philippine lime` dahil sa maasim at matapang nitong lasa. Kapag hinaluan ng pulot, nagiging isang nakakapreskong at posibleng kapaki-pakinabang na inumin ito. Ang kalamansi ay mayaman sa vitamin C, na mahalaga para sa pagpapalakas ng immune system at pagpapabuti ng pangkalahatang kalusugan. Naglalaman din ito ng antioxidants na tumutulong na protektahan ang mga selula mula sa pinsala.  maaaring maging natural na lunas para sa iba't ibang karamdaman, tulad ng sipon, ubo, at sore throat.</t>
@@ -1153,10 +1242,24 @@
     <t>Sipon</t>
   </si>
   <si>
-    <t>https://mypharma.ph/articles/10-classic-home-remedies-trusted-by-filipino-moms
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://mypharma.ph/articles/10-classic-home-remedies-trusted-by-filipino-moms
 https://uscitrus.com/blogs/citrus-delight-blog/calamondin-magic-7-amazing-health-benefits-of-calamansi-juice
-https://www.thelittleepicurean.com/calamansi-juice/
-https://nawon.com.vn/calamansi-juice-8-benefits-of-this-tasty-citrus-fruit/</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.thelittleepicurean.com/calamansi-juice</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+https://nawon.com.vn/calamansi-juice-8-benefits-of-this-tasty-citrus-fruit</t>
+    </r>
   </si>
   <si>
     <t>Gauze bandage</t>
@@ -1178,9 +1281,23 @@
     <t>Burn</t>
   </si>
   <si>
-    <t>https://www.band-aid.com/first-aid-info/first-aid-basics/bandaging-a-wound
-https://gauzecare.com/7-different-types-of-gauze-for-wounds-when-to-use-them/
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://www.band-aid.com/first-aid-info/first-aid-basics/bandaging-a-wound
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://gauzecare.com/7-different-types-of-gauze-for-wounds-when-to-use-them</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
 https://www.woundsource.com/blog/gauze-dressings-and-wounds-9-dos-and-don-ts</t>
+    </r>
   </si>
   <si>
     <t>Bandang gasa</t>
@@ -1202,9 +1319,23 @@
     <t>Paso</t>
   </si>
   <si>
-    <t>https://www.band-aid.com/first-aid-info/first-aid-basics/bandaging-a-wound
-https://gauzecare.com/7-different-types-of-gauze-for-wounds-when-to-use-them/
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://www.band-aid.com/first-aid-info/first-aid-basics/bandaging-a-wound
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://gauzecare.com/7-different-types-of-gauze-for-wounds-when-to-use-them</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
 https://www.woundsource.com/blog/gauze-dressings-and-wounds-9-dos-and-don-ts</t>
+    </r>
   </si>
   <si>
     <t>Aloe vera</t>
@@ -1232,10 +1363,20 @@
 Rash</t>
   </si>
   <si>
-    <t>https://hellodoctor.com.ph/fil/mga-herbal-at-alternatives/halamang-gamot/benepisyo-ng-aloe-vera/
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://hellodoctor.com.ph/fil/mga-herbal-at-alternatives/halamang-gamot/benepisyo-ng-aloe-vera</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
 https://www.almanac.com/aloe-vera-self-regenerating-first-aid-kit
-https://naturallysavvy.com/care/7-fabulous-first-aid-uses-for-aloe-vera-you-should-know/
-https://wellnessnova.com/herbal-first-aid-kit/</t>
+https://naturallysavvy.com/care/7-fabulous-first-aid-uses-for-aloe-vera-you-should-know
+https://wellnessnova.com/herbal-first-aid-kit</t>
+    </r>
   </si>
   <si>
     <t>Ang aloe vera ay isang succulent na halaman na may makapal at makatas na mga dahon na naglalaman ng parang gel na sangkap sa loob. Ang gel na ito ay ginagamit sa loob ng maraming siglo bilang natural na lunas para sa iba't ibang kondisyon sa kalusugan. Ang aloe vera gel ay mayaman sa mga bitamina, mineral, at antioxidants. Naglalaman din ito ng mga bioactive na sangkap na maaaring may anti-inflammatory, antimicrobial, at wound-healing na katangian. Madalas na ginagamit ang aloe vera bilang pangkasalukuyang lunas sa mga kondisyon sa balat, tulad ng paso, hiwa, at acne. Maaari rin itong makatulong sa pagpapakalma ng sunburn at pagbabawas ng pangangati. Bukod dito, may ilang pag-aaral na nagpapahiwatig na maaaring may benepisyo rin ang aloe vera sa loob ng katawan, kabilang ang pagpapabuti ng digestion at pagpapalakas ng immune system.</t>
@@ -1261,10 +1402,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://hellodoctor.com.ph/fil/mga-herbal-at-alternatives/halamang-gamot/benepisyo-ng-aloe-vera</t>
+    </r>
+    <r>
       <rPr/>
-      <t xml:space="preserve">https://hellodoctor.com.ph/fil/mga-herbal-at-alternatives/halamang-gamot/benepisyo-ng-aloe-vera/
+      <t xml:space="preserve">
 https://www.almanac.com/aloe-vera-self-regenerating-first-aid-kit
-https://naturallysavvy.com/care/7-fabulous-first-aid-uses-for-aloe-vera-you-should-know/
+https://naturallysavvy.com/care/7-fabulous-first-aid-uses-for-aloe-vera-you-should-know
 </t>
     </r>
     <r>
@@ -1272,7 +1420,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://wellnessnova.com/herbal-first-aid-kit/</t>
+      <t>https://wellnessnova.com/herbal-first-aid-kit</t>
     </r>
   </si>
   <si>
@@ -1298,9 +1446,18 @@
 Bleeding</t>
   </si>
   <si>
-    <t xml:space="preserve">https://tl.wikibooks.org/wiki/Lunas_Gamit_ang_Halamang_Gamot_at_Haydroterapi/Lunas_sa_nagdurugong_sugat
-https://www.slideshare.net/slideshow/3-final-first-aid-101ppt/264742676
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://tl.wikibooks.org/wiki/Lunas_Gamit_ang_Halamang_Gamot_at_Haydroterapi/Lunas_sa_nagdurugong_sugat
 </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.slideshare.net/slideshow/3-final-first-aid-101ppt/264742676</t>
+    </r>
   </si>
   <si>
     <t>Dahon ng saging</t>
@@ -1325,9 +1482,18 @@
 Pagdurugo</t>
   </si>
   <si>
-    <t xml:space="preserve">https://tl.wikibooks.org/wiki/Lunas_Gamit_ang_Halamang_Gamot_at_Haydroterapi/Lunas_sa_nagdurugong_sugat
-https://www.slideshare.net/slideshow/3-final-first-aid-101ppt/264742676
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://tl.wikibooks.org/wiki/Lunas_Gamit_ang_Halamang_Gamot_at_Haydroterapi/Lunas_sa_nagdurugong_sugat
 </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.slideshare.net/slideshow/3-final-first-aid-101ppt/264742676</t>
+    </r>
   </si>
   <si>
     <t>Mayana leaves</t>
@@ -1352,10 +1518,24 @@
 Bleeding</t>
   </si>
   <si>
-    <t>https://tl.wikibooks.org/wiki/Lunas_Gamit_ang_Halamang_Gamot_at_Haydroterapi/Lunas_sa_nagdurugong_sugat
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://tl.wikibooks.org/wiki/Lunas_Gamit_ang_Halamang_Gamot_at_Haydroterapi/Lunas_sa_nagdurugong_sugat
 https://www.herbanext.com/medicinal-herbs/painted-coleus-mayana
-https://sonyasgarden.com/explore-the-garden/3-reasons-mayana-garden/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://sonyasgarden.com/explore-the-garden/3-reasons-mayana-garden</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
 http://www.ijfe.org/uploadfile/2017/0816/20170816112607904.pdf</t>
+    </r>
   </si>
   <si>
     <t>Dahon ng mayana</t>
@@ -1379,7 +1559,18 @@
       <rPr/>
       <t xml:space="preserve">https://tl.wikibooks.org/wiki/Lunas_Gamit_ang_Halamang_Gamot_at_Haydroterapi/Lunas_sa_nagdurugong_sugat
 https://www.herbanext.com/medicinal-herbs/painted-coleus-mayana
-https://sonyasgarden.com/explore-the-garden/3-reasons-mayana-garden/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://sonyasgarden.com/explore-the-garden/3-reasons-mayana-garden</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1413,12 +1604,26 @@
 SunBurn</t>
   </si>
   <si>
-    <t>https://www.medicalnewstoday.com/articles/322907#medical-treatments
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://www.medicalnewstoday.com/articles/322907#medical-treatments
 https://www.healthline.com/nutrition/benefits-of-honey
-https://www.nutritionletter.tufts.edu/healthy-eating/honey-potential-benefits-and-risks/
-https://newsnetwork.mayoclinic.org/discussion/mayo-clinic-minute-the-cautions-and-benefits-of-honey/
-https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5424551/
-https://ahpanet.com/</t>
+https://www.nutritionletter.tufts.edu/healthy-eating/honey-potential-benefits-and-risks
+https://newsnetwork.mayoclinic.org/discussion/mayo-clinic-minute-the-cautions-and-benefits-of-honey
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5424551</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+https://ahpanet.com</t>
+    </r>
   </si>
   <si>
     <t>Ang pulot ay isang matamis at malapot na substansya na ginagawa ng mga bubuyog mula sa nektar na kinokolekta mula sa mga bulaklak. Ito ay isang natural na pampatamis na ginagamit sa loob ng maraming siglo para sa parehong mga katangian nito sa pagluluto at medisina. Ang pulot ay mayaman sa antioxidants at mga bioactive na sangkap na maaaring magbigay ng benepisyo sa kalusugan. Ipinakita na mayroon itong antibacterial at antifungal na mga katangian, na makakatulong sa paglaban sa mga impeksyon. Bukod dito, maaaring makatulong ang pulot sa pagpapakalma ng sore throat, ubo, at mga problema sa pagtunaw. May ilang pag-aaral na nagpapahiwatig na ang pulot ay maaaring mayroon ding anti-inflammatory na mga katangian at makakatulong sa pagpapabuti ng kalidad ng pagtulog.</t>
@@ -1435,12 +1640,26 @@
     <t>Pumili ng Raw Honey: Gumamit ng raw, hindi naprosesong honey para sa natural na medicinal properties nito. Linisin ang Sugat: Banayad na banlawan ang apiktadong lugar gamit ang malinis na tubig. Ilagay ang Honey: Maglagay ng manipis na layer ng honey direkta sa sugat o apektadong bahagi. Takpan ang apiktadong lugar: Ilagay ang sterile na bendahe o gauze sa ibabaw ng honey-coated na bahagi upang manatili ito sa lugar. Palitan Regularly: Palitan ang honey at bendahe kung kinakailangan, lalo na kung nagiging basa o marumi ang bendahe. Suriin ang Reaksyon: Obserbahan ang sugat para sa anumang palatandaan ng allergic reactions o iritasyon.</t>
   </si>
   <si>
-    <t>https://www.medicalnewstoday.com/articles/322907#medical-treatments
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://www.medicalnewstoday.com/articles/322907#medical-treatments
 https://www.healthline.com/nutrition/benefits-of-honey
-https://www.nutritionletter.tufts.edu/healthy-eating/honey-potential-benefits-and-risks/
-https://newsnetwork.mayoclinic.org/discussion/mayo-clinic-minute-the-cautions-and-benefits-of-honey/
-https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5424551/
-https://ahpanet.com/</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.nutritionletter.tufts.edu/healthy-eating/honey-potential-benefits-and-risks</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+https://newsnetwork.mayoclinic.org/discussion/mayo-clinic-minute-the-cautions-and-benefits-of-honey
+https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5424551
+https://ahpanet.com</t>
+    </r>
   </si>
   <si>
     <t>Garlic (sprain)</t>
@@ -1463,9 +1682,19 @@
     <t>Sprains</t>
   </si>
   <si>
-    <t>https://www.algotech.ca/en/natural-remedies-for-an-ankle-sprain/
-https://www.tasteofhome.com/collection/homemade-first-aid-remedies/
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.algotech.ca/en/natural-remedies-for-an-ankle-sprain</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+https://www.tasteofhome.com/collection/homemade-first-aid-remedies
 https://health.clevelandclinic.org/6-surprising-ways-garlic-boosts-your-health</t>
+    </r>
   </si>
   <si>
     <t>Bawang (sprain)</t>
@@ -1485,9 +1714,19 @@
     <t>Pumili ng Sariwang Bawang: Pumili ng matigas at buo na mga ulo ng bawang. Iwasan ang mga may malalambot na parte o amag. Balatan ang Mga Butil: Dahan-dahang alisin ang panlabas na balat ng ulo ng bawang. Paghiwa-hiwalayin ang mga butil at balatan ang kanilang manipis na balat. Durugin o Tadtarin: Durugin: Gumamit ng garlic press o patag na bahagi ng kutsilyong pangkusina upang durugin ang mga butil. Tadtarin: Hiwain nang pino ang mga butil gamit ang kutsilyo. Gumawa ng Paste: Paghaluin ang dinurog o tinadtad na bawang sa kaunting honey o olive oil upang makagawa ng paste. I-apply sa Bahaging Napilayan: Ipahid ang bawang paste nang direkta sa bahaging napilayan. Maaari itong takpan ng benda o tela upang manatili ito sa lugar.</t>
   </si>
   <si>
-    <t>https://www.algotech.ca/en/natural-remedies-for-an-ankle-sprain/
-https://www.tasteofhome.com/collection/homemade-first-aid-remedies/
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.algotech.ca/en/natural-remedies-for-an-ankle-sprain</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+https://www.tasteofhome.com/collection/homemade-first-aid-remedies
 https://health.clevelandclinic.org/6-surprising-ways-garlic-boosts-your-health</t>
+    </r>
   </si>
   <si>
     <t>Onion</t>
@@ -1507,10 +1746,26 @@
     <t>Peel the onion: Remove the outer skin of the onion. Grate or blend: Use a grater or blender to crush the onion into a fine paste. Apply: Apply the onion paste directly to the sprained area. You can secure it with a bandage or gauze.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://wellnessmama.com/remedies/onion-benefits/
-https://www.algotech.ca/en/natural-remedies-for-an-ankle-sprain/
-https://txnaturalpediatrics.com/2019/08/06/natural-remedies-for-a-sprained-ankle/
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://wellnessmama.com/remedies/onion-benefits</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+https://www.algotech.ca/en/natural-remedies-for-an-ankle-sprain
 </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://txnaturalpediatrics.com/2019/08/06/natural-remedies-for-a-sprained-ankle</t>
+    </r>
   </si>
   <si>
     <t>Sibuyas</t>
@@ -1530,10 +1785,19 @@
     <t>Balatan ang sibuyas: Alisin ang panlabas na balat ng sibuyas. Grate o blend: Gamit ang isang grater o blender, durugin ang sibuyas hanggang maging isang pinong paste. Ilapat: Ilapat ang paste ng sibuyas nang direkta sa namamagang lugar. Maaari mo itong i-secure gamit ang isang benda o gauze.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://wellnessmama.com/remedies/onion-benefits/
-https://www.algotech.ca/en/natural-remedies-for-an-ankle-sprain/
-https://txnaturalpediatrics.com/2019/08/06/natural-remedies-for-a-sprained-ankle/
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://wellnessmama.com/remedies/onion-benefits
+https://www.algotech.ca/en/natural-remedies-for-an-ankle-sprain
 </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://txnaturalpediatrics.com/2019/08/06/natural-remedies-for-a-sprained-ankle</t>
+    </r>
   </si>
   <si>
     <t>Cabbage</t>
@@ -1561,10 +1825,10 @@
   <si>
     <r>
       <rPr/>
-      <t xml:space="preserve">https://www.algotech.ca/en/natural-remedies-for-an-ankle-sprain/
-https://www.livestrong.com/article/205430-how-to-apply-raw-cabbage-leaves-for-the-relief-of-joint-pain/
+      <t xml:space="preserve">https://www.algotech.ca/en/natural-remedies-for-an-ankle-sprain
+https://www.livestrong.com/article/205430-how-to-apply-raw-cabbage-leaves-for-the-relief-of-joint-pain
 https://www.womansworld.com/wellness/pain-management/cabbage-leaves-for-inflammation-170241
-https://thelostherbs.com/how-to-make-cabbage-bandages-to-treat-inflammation-and-joint-pain/
+https://thelostherbs.com/how-to-make-cabbage-bandages-to-treat-inflammation-and-joint-pain
 </t>
     </r>
     <r>
@@ -1600,11 +1864,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.algotech.ca/en/natural-remedies-for-an-ankle-sprain</t>
+    </r>
+    <r>
       <rPr/>
-      <t xml:space="preserve">https://www.algotech.ca/en/natural-remedies-for-an-ankle-sprain/
-https://www.livestrong.com/article/205430-how-to-apply-raw-cabbage-leaves-for-the-relief-of-joint-pain/
+      <t xml:space="preserve">
+https://www.livestrong.com/article/205430-how-to-apply-raw-cabbage-leaves-for-the-relief-of-joint-pain
 https://www.womansworld.com/wellness/pain-management/cabbage-leaves-for-inflammation-170241
-https://thelostherbs.com/how-to-make-cabbage-bandages-to-treat-inflammation-and-joint-pain/
+https://thelostherbs.com/how-to-make-cabbage-bandages-to-treat-inflammation-and-joint-pain
 </t>
     </r>
     <r>
@@ -1646,9 +1917,20 @@
   <si>
     <r>
       <rPr/>
-      <t xml:space="preserve">https://www.greenchildmagazine.com/herbal-remedies-for-bruises/
+      <t xml:space="preserve">https://www.greenchildmagazine.com/herbal-remedies-for-bruises
 https://www.britannica.com/plant/pineapple
-https://www.everydayhealth.com/diet-nutrition/pineapple-benefits-nutrition-facts-side-effects-more/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.everydayhealth.com/diet-nutrition/pineapple-benefits-nutrition-facts-side-effects-more</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1689,10 +1971,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.greenchildmagazine.com/herbal-remedies-for-bruises</t>
+    </r>
+    <r>
       <rPr/>
-      <t xml:space="preserve">https://www.greenchildmagazine.com/herbal-remedies-for-bruises/
+      <t xml:space="preserve">
 https://www.britannica.com/plant/pineapple
-https://www.everydayhealth.com/diet-nutrition/pineapple-benefits-nutrition-facts-side-effects-more/
+https://www.everydayhealth.com/diet-nutrition/pineapple-benefits-nutrition-facts-side-effects-more
 </t>
     </r>
     <r>
@@ -1730,8 +2019,15 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.greenchildmagazine.com/herbal-remedies-for-bruises</t>
+    </r>
+    <r>
       <rPr/>
-      <t xml:space="preserve">https://www.greenchildmagazine.com/herbal-remedies-for-bruises/
+      <t xml:space="preserve">
 https://www.healthline.com/nutrition/oranges
 </t>
     </r>
@@ -1766,9 +2062,19 @@
     <t>Pumili ng Sariwang Orange: Gumamit ng sariwang orange para sa pinakamahusay na resulta. Ihanda ang Orange: Balatan ang Orange: Alisin ang panlabas na balat at puting bahagi. Ihiwa sa Maliit na Piraso: Ihiwa ang orange sa maliliit na piraso. Ilagay sa Apektadong Lugar: Para sa Irritasyon ng Balat o Maliit na Burns: Pisilin ang katas ng orange at ipahid direkta sa apektadong lugar. Para sa Sugat o Gasgas: Ipatak ang katas ng orange sa sugat gamit ang malinis na tela o cotton ball. Takpan Kung Kinakailangan: Gumamit ng malinis na bendahe o tela upang takpan ang lugar kung kinakailangan. Suriin ang Reaksyon: Obserbahan ang anumang palatandaan ng iritasyon o allergic reactions. Ang orange ay maasim at maaaring magdulot ng stinging sensation sa ilang mga kaso.</t>
   </si>
   <si>
-    <t>https://www.greenchildmagazine.com/herbal-remedies-for-bruises/
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.greenchildmagazine.com/herbal-remedies-for-bruises</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
 https://www.healthline.com/nutrition/oranges
 https://newsroom.heart.org/file?fid=56006b325e8eef723f5df991</t>
+    </r>
   </si>
   <si>
     <t>Spinach</t>
@@ -1808,7 +2114,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://www.greenchildmagazine.com/herbal-remedies-for-bruises/</t>
+      <t>https://www.greenchildmagazine.com/herbal-remedies-for-bruises</t>
     </r>
   </si>
   <si>
@@ -1846,14 +2152,14 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://www.greenchildmagazine.com/herbal-remedies-for-bruises/</t>
+      <t>https://www.greenchildmagazine.com/herbal-remedies-for-bruises</t>
     </r>
   </si>
   <si>
     <t>Cucumber</t>
   </si>
   <si>
-    <t>Cucumber is a versatile vegetable that is often used in salads, sandwiches, and other dishes. It has a crisp, refreshing taste and a high water content. Cucumbers are a good source of vitamins and minerals, including vitamin C, potassium, and magnesium. They are also a low-calorie food that can help with hydration. Cucumbers contain a compound called cucurbitacin, which may have anti-inflammatory properties. Additionally, cucumbers are a good source of fiber, which can promote digestive health.</t>
+    <t>Cucumber is a versatile vegetable that is often used in salads, sandwiches, and other dishes. It has a crisp, refreshing taste content. Cucumbers are a good source of vitamins and minerals, including vitamin C, potassium, and magnesium. They are also a low-calorie food that can help with hydration. Cucumbers contain a compound called cucurbitacin, which may have anti-inflammatory properties. Additionally, cucumbers are a good source of fiber, which can promote digestive health.</t>
   </si>
   <si>
     <t>Cucumber
@@ -1870,16 +2176,26 @@
     <t>SunBurn</t>
   </si>
   <si>
-    <t>https://www.manisteenews.com/news/article/sunburn-home-remedies-19551484.php
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://www.manisteenews.com/news/article/sunburn-home-remedies-19551484.php
 https://www.verywellhealth.com/cucumber-8411954
 https://www.almanac.com/cucumbers-health-benefits
-https://www.realsimple.com/cucumber-health-benefits-7371080</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.realsimple.com/cucumber-health-benefits-7371080</t>
+    </r>
   </si>
   <si>
     <t>Pipino</t>
   </si>
   <si>
-    <t>Ang pipino ay isang maraming gamit na gulay na madalas ginagamit sa mga salad, sandwich, at iba pang pagkain. Mayroon itong malutong, nakakapreskong lasa at mataas na nilalaman ng tubig. Ang mga pipino ay isang mahusay na pinagmumulan ng mga bitamina at mineral, kabilang ang bitamina C, potasyum, at magnesium. Ang mga ito ay isang mababang-kaloryang pagkain din na maaaring makatulong sa hydration. Naglalaman ang mga pipino ng isang compound na tinatawag na cucurbitacin, na maaaring magkaroon ng mga anti-inflammatory properties. Bukod dito, ang mga pipino ay isang mahusay na pinagmumulan ng fiber, na maaaring makatulong na maitaguyod ang kalusugan ng pagtunaw.</t>
+    <t>Ang pipino ay isang maraming gamit na gulay na madalas ginagamit sa mga salad, sandwich, at iba pang pagkain. Mayroon itong malutong, nakakapreskong lasa. Ang mga pipino ay isang mahusay na pinagmumulan ng mga bitamina at mineral, kabilang ang bitamina C, potasyum, at magnesium. Ang mga ito ay isang mababang-kaloryang pagkain din na maaaring makatulong sa hydration. Naglalaman ang mga pipino ng isang compound na tinatawag na cucurbitacin, na maaaring magkaroon ng mga anti-inflammatory properties. Bukod dito, ang mga pipino ay isang mahusay na pinagmumulan ng fiber, na maaaring makatulong na maitaguyod ang kalusugan ng pagtunaw.</t>
   </si>
   <si>
     <t>Pipino
@@ -1891,6 +2207,12 @@
   </si>
   <si>
     <t>Pumili ng Pipino: Piliin ang sariwa at matigas na pipino. Ihanda: Banlawan: Banlawan ng tubig. Balatan (Opsyonal): Balatan kung gusto. Hiwain o Durugin: Gupitin o durugin. Ilagay: Para sa Irritasyon o Sunog: Ilagay sa apektadong lugar. Para sa Namamagang Mata: Ilagay ang malamig na hiwa sa mata. Takpan Kung Kailangan: Gumamit ng bendahe o tela.</t>
+  </si>
+  <si>
+    <t>https://www.manisteenews.com/news/article/sunburn-home-remedies-19551484.php
+https://www.verywellhealth.com/cucumber-8411954
+https://www.almanac.com/cucumbers-health-benefits
+https://www.realsimple.com/cucumber-health-benefits-7371080</t>
   </si>
   <si>
     <t>Garlic (fever)</t>
@@ -1915,8 +2237,18 @@
     <t>Fever</t>
   </si>
   <si>
-    <t>https://theherbalacademy.com/blog/8-herbal-home-remedies-for-colds-and-flu/
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://theherbalacademy.com/blog/8-herbal-home-remedies-for-colds-and-flu</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
 https://health.clevelandclinic.org/6-surprising-ways-garlic-boosts-your-health</t>
+    </r>
   </si>
   <si>
     <t>Bawang (fever)</t>
@@ -1938,6 +2270,20 @@
     <t>Durug-durog o gupitin ang 2-3 bawang. Pakuluan ang 1 tasa ng tubig. Idagdag ang bawang sa kumukulong tubig. Pakuluan ng 5-10 minuto. Salain at idagdag ang pulot o lemon kung ninanais. Uminom habang mainit.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://theherbalacademy.com/blog/8-herbal-home-remedies-for-colds-and-flu</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+https://health.clevelandclinic.org/6-surprising-ways-garlic-boosts-your-health</t>
+    </r>
+  </si>
+  <si>
     <t>Lemon</t>
   </si>
   <si>
@@ -1960,7 +2306,7 @@
     <t>Squeeze the juice of 1 lemon into a glass of warm water. Stir well. Drink immediately.</t>
   </si>
   <si>
-    <t>https://theherbalacademy.com/blog/8-herbal-home-remedies-for-colds-and-flu/
+    <t>https://theherbalacademy.com/blog/8-herbal-home-remedies-for-colds-and-flu
 https://www.healthline.com/health/video/benefits-of-lemon-water
 https://www.healthline.com/nutrition/6-lemon-health-benefits</t>
   </si>
@@ -1985,8 +2331,15 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://theherbalacademy.com/blog/8-herbal-home-remedies-for-colds-and-flu</t>
+    </r>
+    <r>
       <rPr/>
-      <t xml:space="preserve">https://theherbalacademy.com/blog/8-herbal-home-remedies-for-colds-and-flu/
+      <t xml:space="preserve">
 https://www.healthline.com/health/video/benefits-of-lemon-water
 </t>
     </r>
@@ -2018,33 +2371,7 @@
     <t>Crush or finely chop 2-3 garlic cloves. Heat 1/4 cup of olive oil. Add garlic to the heated oil and cook for a few minutes. Let the mixture cool. Strain out the garlic pieces. Massage the garlic-infused oil onto the chest</t>
   </si>
   <si>
-    <t>Chest Pain</t>
-  </si>
-  <si>
-    <t>https://www.medicalnewstoday.com/articles/321133#home-remedies
-https://health.clevelandclinic.org/6-surprising-ways-garlic-boosts-your-health</t>
-  </si>
-  <si>
-    <t>Bawang (chest pain)</t>
-  </si>
-  <si>
-    <t>Bawang (chest pain)
-Paano maghanda ng garlic para sa sakit sa dibdib?
-Mga hakbang sa paggamit ng garlic para sa paggamot ng sakit sa dibdib
-Paano gumawa ng garlic para sa sakit sa dibdib?
-Mga tamang pamamaraan sa paggamit ng garlic sa sakit sa dibdib
-Paano ilagay ang garlic para sa sakit sa dibdib?
-Makakatulong ba ang garlic sa pagbabawas ng sakit sa dibdib?
-Paano pagsamahin ang garlic sa iba pang remedyo para sa sakit sa dibdib?
-Mga benepisyo ng paggamit ng garlic para sa sakit sa dibdib
-Paano ihanda ang garlic para sa sakit sa dibdib?
-Paano itabi ang garlic para sa medikal na gamit laban sa sakit sa dibdib?</t>
-  </si>
-  <si>
-    <t>Durugin o i-chop nang pino ang 2-3 cloves ng bawang. Painitin ang 1/4 tasa ng olive oil. Idagdag ang bawang sa mainit na langis at lutuin ng ilang minuto. Hayaan na lumamig ang timpla. Salain ang mga piraso ng bawang. Imasahe ang bawang-infused na langis sa dibdib.</t>
-  </si>
-  <si>
-    <t>Pananakit ng dibdib</t>
+    <t>Chest pain</t>
   </si>
   <si>
     <r>
@@ -2061,6 +2388,42 @@
     </r>
   </si>
   <si>
+    <t>Bawang (chest pain)</t>
+  </si>
+  <si>
+    <t>Bawang (chest pain)
+Paano maghanda ng garlic para sa sakit sa dibdib?
+Mga hakbang sa paggamit ng garlic para sa paggamot ng sakit sa dibdib
+Paano gumawa ng garlic para sa sakit sa dibdib?
+Mga tamang pamamaraan sa paggamit ng garlic sa sakit sa dibdib
+Paano ilagay ang garlic para sa sakit sa dibdib?
+Makakatulong ba ang garlic sa pagbabawas ng sakit sa dibdib?
+Paano pagsamahin ang garlic sa iba pang remedyo para sa sakit sa dibdib?
+Mga benepisyo ng paggamit ng garlic para sa sakit sa dibdib
+Paano ihanda ang garlic para sa sakit sa dibdib?
+Paano itabi ang garlic para sa medikal na gamit laban sa sakit sa dibdib?</t>
+  </si>
+  <si>
+    <t>Durugin o i-chop nang pino ang 2-3 cloves ng bawang. Painitin ang 1/4 tasa ng olive oil. Idagdag ang bawang sa mainit na langis at lutuin ng ilang minuto. Hayaan na lumamig ang timpla. Salain ang mga piraso ng bawang. Imasahe ang bawang-infused na langis sa dibdib.</t>
+  </si>
+  <si>
+    <t>Pananakit ng dibdib</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">https://www.medicalnewstoday.com/articles/321133#home-remedies
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://health.clevelandclinic.org/6-surprising-ways-garlic-boosts-your-health</t>
+    </r>
+  </si>
+  <si>
     <t>Ginger (chest pain)</t>
   </si>
   <si>
@@ -2083,9 +2446,30 @@
     <t>Peel and slice a 1-2 inch piece of fresh ginger. Boil the ginger slices in water for 10 minutes. Let the ginger water cool slightly. Soak a cloth in the ginger water. Apply the warm, damp cloth to the chest for 10-15 minutes</t>
   </si>
   <si>
-    <t>https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/luya-benefits/
-https://pinascuisine.com/luya/
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/luya-benefits</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://pinascuisine.com/luya</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
 http://www.philippineherbalmedicine.org/ginger.htm</t>
+    </r>
   </si>
   <si>
     <t>Luya (chest pain)</t>
@@ -2108,9 +2492,27 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/luya-benefits</t>
+    </r>
+    <r>
       <rPr/>
-      <t xml:space="preserve">https://hellodoctor.com.ph/herbals-and-alternatives/herbal-medicines/luya-benefits/
-https://pinascuisine.com/luya/
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://pinascuisine.com/luya</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -2146,7 +2548,7 @@
   <si>
     <t>https://www.medicalnewstoday.com/articles/321133#home-remedies
 https://www.healthline.com/nutrition/9-proven-benefits-of-almonds
-https://www.nutritionadvance.com/almonds-nutrition-benefits/</t>
+https://www.nutritionadvance.com/almonds-nutrition-benefits</t>
   </si>
   <si>
     <t>Ang mga almond ay isang uri ng tree nut na sikat sa kanilang nutty na lasa at nutritional value. Ang mga ito ay isang mahusay na pinagmumulan ng malusog na taba, fiber, protina, at antioxidant. Ang mga almond ay mayaman sa monounsaturated fats, na maaaring makatulong na ibaba ang mga antas ng kolesterol. Ang mga ito ay isang mahusay din na pinagmumulan ng bitamina E, na isang antioxidant na maaaring makatulong na protektahan ang mga selula mula sa pinsala. Bukod dito, naglalaman ang mga almond ng fiber, na maaaring maitaguyod ang kalusugan ng pagtunaw.</t>
@@ -2179,7 +2581,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://www.nutritionadvance.com/almonds-nutrition-benefits/</t>
+      <t>https://www.nutritionadvance.com/almonds-nutrition-benefits</t>
     </r>
   </si>
 </sst>
@@ -2218,12 +2620,12 @@
       <name val="&quot;Courier New&quot;"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2252,7 +2654,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2280,20 +2682,17 @@
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3088,7 +3487,7 @@
       <c r="F14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H14" s="6"/>
@@ -3340,7 +3739,7 @@
       <c r="F20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H20" s="6"/>
@@ -3424,7 +3823,7 @@
       <c r="F22" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="5" t="s">
         <v>130</v>
       </c>
       <c r="H22" s="6"/>
@@ -3508,7 +3907,7 @@
       <c r="F24" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="5" t="s">
         <v>141</v>
       </c>
       <c r="H24" s="6"/>
@@ -3550,7 +3949,7 @@
       <c r="F25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="5" t="s">
         <v>146</v>
       </c>
       <c r="H25" s="6"/>
@@ -3592,7 +3991,7 @@
       <c r="F26" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="5" t="s">
         <v>152</v>
       </c>
       <c r="H26" s="6"/>
@@ -3634,7 +4033,7 @@
       <c r="F27" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="5" t="s">
         <v>158</v>
       </c>
       <c r="H27" s="6"/>
@@ -3676,7 +4075,7 @@
       <c r="F28" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="5" t="s">
         <v>164</v>
       </c>
       <c r="H28" s="6"/>
@@ -3760,7 +4159,7 @@
       <c r="F30" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="5" t="s">
         <v>175</v>
       </c>
       <c r="H30" s="6"/>
@@ -3802,7 +4201,7 @@
       <c r="F31" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="5" t="s">
         <v>181</v>
       </c>
       <c r="H31" s="6"/>
@@ -3844,7 +4243,7 @@
       <c r="F32" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="5" t="s">
         <v>187</v>
       </c>
       <c r="H32" s="6"/>
@@ -3928,7 +4327,7 @@
       <c r="F34" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="5" t="s">
         <v>198</v>
       </c>
       <c r="H34" s="6"/>
@@ -3970,7 +4369,7 @@
       <c r="F35" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="5" t="s">
         <v>202</v>
       </c>
       <c r="H35" s="6"/>
@@ -4000,16 +4399,16 @@
       <c r="B36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>207</v>
       </c>
       <c r="G36" s="10" t="s">
@@ -4042,16 +4441,16 @@
       <c r="B37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>207</v>
       </c>
       <c r="G37" s="10" t="s">
@@ -4096,7 +4495,7 @@
       <c r="F38" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="5" t="s">
         <v>218</v>
       </c>
       <c r="H38" s="6"/>
@@ -4138,7 +4537,7 @@
       <c r="F39" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="5" t="s">
         <v>223</v>
       </c>
       <c r="H39" s="6"/>
@@ -4390,7 +4789,7 @@
       <c r="F45" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="5" t="s">
         <v>254</v>
       </c>
       <c r="H45" s="6"/>
@@ -4516,7 +4915,7 @@
       <c r="F48" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="5" t="s">
         <v>269</v>
       </c>
       <c r="H48" s="6"/>
@@ -4559,7 +4958,7 @@
         <v>268</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -4583,25 +4982,25 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="E50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="E50" s="9" t="s">
         <v>277</v>
       </c>
+      <c r="F50" s="9" t="s">
+        <v>278</v>
+      </c>
       <c r="G50" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -4625,25 +5024,25 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="E51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>277</v>
+      <c r="E51" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
@@ -4667,25 +5066,25 @@
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -4709,25 +5108,25 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -4751,25 +5150,25 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="F54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>294</v>
       </c>
+      <c r="E54" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>296</v>
+      </c>
       <c r="G54" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -4793,25 +5192,25 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>298</v>
+      <c r="D55" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>300</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
@@ -4835,25 +5234,25 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="E56" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>294</v>
+      <c r="D56" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>296</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
@@ -4877,25 +5276,25 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G57" s="13" t="s">
+      <c r="D57" s="9" t="s">
         <v>309</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -4919,25 +5318,25 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -4961,25 +5360,25 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -31363,25 +31762,48 @@
     <hyperlink r:id="rId10" ref="G11"/>
     <hyperlink r:id="rId11" ref="G12"/>
     <hyperlink r:id="rId12" ref="G13"/>
-    <hyperlink r:id="rId13" ref="G15"/>
-    <hyperlink r:id="rId14" ref="G18"/>
-    <hyperlink r:id="rId15" ref="G19"/>
-    <hyperlink r:id="rId16" ref="G21"/>
-    <hyperlink r:id="rId17" ref="G23"/>
-    <hyperlink r:id="rId18" ref="G29"/>
-    <hyperlink r:id="rId19" ref="G33"/>
-    <hyperlink r:id="rId20" ref="G40"/>
-    <hyperlink r:id="rId21" ref="G41"/>
-    <hyperlink r:id="rId22" ref="G42"/>
-    <hyperlink r:id="rId23" ref="G43"/>
-    <hyperlink r:id="rId24" ref="G44"/>
-    <hyperlink r:id="rId25" ref="G46"/>
-    <hyperlink r:id="rId26" ref="G47"/>
-    <hyperlink r:id="rId27" ref="G53"/>
-    <hyperlink r:id="rId28" ref="G55"/>
-    <hyperlink r:id="rId29" ref="G57"/>
-    <hyperlink r:id="rId30" ref="G59"/>
+    <hyperlink r:id="rId13" ref="G14"/>
+    <hyperlink r:id="rId14" ref="G15"/>
+    <hyperlink r:id="rId15" ref="G18"/>
+    <hyperlink r:id="rId16" ref="G19"/>
+    <hyperlink r:id="rId17" ref="G20"/>
+    <hyperlink r:id="rId18" ref="G21"/>
+    <hyperlink r:id="rId19" ref="G22"/>
+    <hyperlink r:id="rId20" ref="G23"/>
+    <hyperlink r:id="rId21" ref="G24"/>
+    <hyperlink r:id="rId22" ref="G25"/>
+    <hyperlink r:id="rId23" ref="G26"/>
+    <hyperlink r:id="rId24" ref="G27"/>
+    <hyperlink r:id="rId25" ref="G28"/>
+    <hyperlink r:id="rId26" ref="G29"/>
+    <hyperlink r:id="rId27" ref="G30"/>
+    <hyperlink r:id="rId28" ref="G31"/>
+    <hyperlink r:id="rId29" ref="G32"/>
+    <hyperlink r:id="rId30" ref="G33"/>
+    <hyperlink r:id="rId31" ref="G34"/>
+    <hyperlink r:id="rId32" ref="G35"/>
+    <hyperlink r:id="rId33" ref="G36"/>
+    <hyperlink r:id="rId34" ref="G37"/>
+    <hyperlink r:id="rId35" ref="G38"/>
+    <hyperlink r:id="rId36" ref="G39"/>
+    <hyperlink r:id="rId37" ref="G40"/>
+    <hyperlink r:id="rId38" ref="G41"/>
+    <hyperlink r:id="rId39" ref="G42"/>
+    <hyperlink r:id="rId40" ref="G43"/>
+    <hyperlink r:id="rId41" ref="G44"/>
+    <hyperlink r:id="rId42" ref="G45"/>
+    <hyperlink r:id="rId43" ref="G46"/>
+    <hyperlink r:id="rId44" ref="G47"/>
+    <hyperlink r:id="rId45" ref="G48"/>
+    <hyperlink r:id="rId46" ref="G50"/>
+    <hyperlink r:id="rId47" ref="G51"/>
+    <hyperlink r:id="rId48" ref="G53"/>
+    <hyperlink r:id="rId49" ref="G54"/>
+    <hyperlink r:id="rId50" ref="G55"/>
+    <hyperlink r:id="rId51" ref="G56"/>
+    <hyperlink r:id="rId52" ref="G57"/>
+    <hyperlink r:id="rId53" ref="G59"/>
   </hyperlinks>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId54"/>
 </worksheet>
 </file>